--- a/data/NP20versusRestIncomeTrendsSAS.xlsx
+++ b/data/NP20versusRestIncomeTrendsSAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\income_trends\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E809EF75-41CA-49F8-8E57-057468AABFEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83B3C38E-3FD9-41E2-9404-5576BD271C49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="1" activeTab="6" xr2:uid="{D9FE3842-8E06-4FE3-AB47-0A335F305402}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="1" activeTab="6" xr2:uid="{8EAF8184-70E6-4026-9365-0B8EF7ADE961}"/>
   </bookViews>
   <sheets>
     <sheet name="Bangladesh" sheetId="2" r:id="rId1"/>
@@ -143,7 +143,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25CDF5DF-6434-4D35-99DE-49841673947C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99A424D9-6D01-44B6-9668-42CB0C3A2FD6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -201,7 +201,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E25E1B0F-6F28-47D7-86B0-EA9580AF6364}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90F3F0AF-24FA-4F4B-9F2C-0CADA5757514}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -259,7 +259,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AA38DB4-C712-4194-B463-DE130AF9C6AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CAF7472-A5BE-4D88-8A65-323EADD8C192}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -317,7 +317,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{081F0DCA-8061-43CC-9202-CA12CB3C6088}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC350F6E-E945-4143-8B48-65855CC68B79}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -375,7 +375,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A681297-EF74-48BC-84D1-92991F5F0E94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4E2D823-7BAE-4C9E-999C-49F14CBEAEBF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -433,7 +433,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E62C9323-42B0-49E1-896F-F153225AE6C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B28AD43-3256-402E-9474-27BDA8902D4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -491,7 +491,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F011C079-C8EE-4662-9C62-90781B34B30D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1351C6F9-DCD5-4DF4-B642-F5DA7949B164}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4A2EA1-28D8-45E9-B410-53374ED40DCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CA4B95-4F67-435F-A7F5-C1EFF3218B1D}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -851,10 +851,10 @@
         <v>4</v>
       </c>
       <c r="J2">
-        <v>0.67612893500000004</v>
+        <v>1.3461289350000001</v>
       </c>
       <c r="K2">
-        <v>3.2816516018664399</v>
+        <v>3.1141516018664399</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -865,10 +865,10 @@
         <v>4</v>
       </c>
       <c r="J3">
-        <v>0.87032027999999995</v>
+        <v>1.36032028</v>
       </c>
       <c r="K3">
-        <v>3.2534749984931501</v>
+        <v>3.1309749984931501</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -879,10 +879,10 @@
         <v>4</v>
       </c>
       <c r="J4">
-        <v>1.0461364339999999</v>
+        <v>1.206136434</v>
       </c>
       <c r="K4">
-        <v>2.9131854805411002</v>
+        <v>2.8731854805411001</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -893,10 +893,10 @@
         <v>4</v>
       </c>
       <c r="J5">
-        <v>1.028515651</v>
+        <v>1.318515651</v>
       </c>
       <c r="K5">
-        <v>3.1811114982088999</v>
+        <v>3.1086114982089001</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -907,10 +907,10 @@
         <v>4</v>
       </c>
       <c r="J6">
-        <v>1.0781223499999999</v>
+        <v>1.20812235</v>
       </c>
       <c r="K6">
-        <v>2.9865313303082202</v>
+        <v>2.95403133030822</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -921,10 +921,10 @@
         <v>4</v>
       </c>
       <c r="J7">
-        <v>1.22824701</v>
+        <v>1.23824701</v>
       </c>
       <c r="K7">
-        <v>3.2226034529794498</v>
+        <v>3.2201034529794499</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -935,10 +935,10 @@
         <v>4</v>
       </c>
       <c r="J8">
-        <v>1.2686158519999999</v>
+        <v>1.2386158519999999</v>
       </c>
       <c r="K8">
-        <v>3.25168137946575</v>
+        <v>3.2591813794657498</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -949,10 +949,10 @@
         <v>4</v>
       </c>
       <c r="J9">
-        <v>1.365107198</v>
+        <v>1.295107198</v>
       </c>
       <c r="K9">
-        <v>3.3836337484452099</v>
+        <v>3.40113374844521</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -963,10 +963,10 @@
         <v>4</v>
       </c>
       <c r="J10">
-        <v>1.5500274875</v>
+        <v>1.4400274875000001</v>
       </c>
       <c r="K10">
-        <v>3.7222917582619899</v>
+        <v>3.7497917582619902</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -977,10 +977,10 @@
         <v>4</v>
       </c>
       <c r="J11">
-        <v>1.6645238899999999</v>
+        <v>1.52452389</v>
       </c>
       <c r="K11">
-        <v>3.9076375206506802</v>
+        <v>3.9426375206506798</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -991,10 +991,10 @@
         <v>4</v>
       </c>
       <c r="J12">
-        <v>1.7880399069999999</v>
+        <v>1.5580399069999999</v>
       </c>
       <c r="K12">
-        <v>3.95189413283904</v>
+        <v>4.0093941328390397</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -1005,10 +1005,10 @@
         <v>4</v>
       </c>
       <c r="J13">
-        <v>1.9251754750000001</v>
+        <v>1.585175475</v>
       </c>
       <c r="K13">
-        <v>4.0128499668664404</v>
+        <v>4.0978499668664403</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -1019,10 +1019,10 @@
         <v>4</v>
       </c>
       <c r="J14">
-        <v>1.9979679625</v>
+        <v>1.5979679625000001</v>
       </c>
       <c r="K14">
-        <v>4.0498148586900697</v>
+        <v>4.1498148586900703</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -1033,10 +1033,10 @@
         <v>4</v>
       </c>
       <c r="J15">
-        <v>2.1379961000000001</v>
+        <v>1.6179961</v>
       </c>
       <c r="K15">
-        <v>4.0910653585616403</v>
+        <v>4.2210653585616402</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -1047,10 +1047,10 @@
         <v>4</v>
       </c>
       <c r="J16">
-        <v>2.2779675159999999</v>
+        <v>1.657967516</v>
       </c>
       <c r="K16">
-        <v>4.2101409977123296</v>
+        <v>4.3651409977123299</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -1063,7 +1063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F75883D-6AD6-4F97-9DEF-E75CB2A44645}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CCF4940-B130-4F67-B601-88616B5E24EF}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1089,10 +1089,10 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>0.90514139299999996</v>
+        <v>0.49514139299999999</v>
       </c>
       <c r="K2">
-        <v>1.6685027339417799</v>
+        <v>1.77100273394178</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -1103,10 +1103,10 @@
         <v>5</v>
       </c>
       <c r="J3">
-        <v>1.0717422505</v>
+        <v>0.55174225050000003</v>
       </c>
       <c r="K3">
-        <v>1.84347512230651</v>
+        <v>1.9734751223065099</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -1117,10 +1117,10 @@
         <v>5</v>
       </c>
       <c r="J4">
-        <v>1.09319122</v>
+        <v>0.87319122000000005</v>
       </c>
       <c r="K4">
-        <v>3.0680898662328802</v>
+        <v>3.1230898662328799</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -1131,10 +1131,10 @@
         <v>5</v>
       </c>
       <c r="J5">
-        <v>1.1296047199999999</v>
+        <v>0.74960472</v>
       </c>
       <c r="K5">
-        <v>2.5861721076712301</v>
+        <v>2.6811721076712298</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -1145,10 +1145,10 @@
         <v>5</v>
       </c>
       <c r="J6">
-        <v>1.12282712</v>
+        <v>0.95282712000000003</v>
       </c>
       <c r="K6">
-        <v>3.3654155487671198</v>
+        <v>3.4079155487671202</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -1159,10 +1159,10 @@
         <v>5</v>
       </c>
       <c r="J7">
-        <v>1.2286636559999999</v>
+        <v>1.1386636560000001</v>
       </c>
       <c r="K7">
-        <v>4.0501655928493197</v>
+        <v>4.0726655928493196</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -1173,10 +1173,10 @@
         <v>5</v>
       </c>
       <c r="J8">
-        <v>1.2181261114999999</v>
+        <v>1.2781261115</v>
       </c>
       <c r="K8">
-        <v>4.5863931296592497</v>
+        <v>4.57139312965925</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -1187,10 +1187,10 @@
         <v>5</v>
       </c>
       <c r="J9">
-        <v>1.2838081514999999</v>
+        <v>1.4038081515</v>
       </c>
       <c r="K9">
-        <v>5.0509301539058198</v>
+        <v>5.0209301539058204</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -1201,10 +1201,10 @@
         <v>5</v>
       </c>
       <c r="J10">
-        <v>1.315289865</v>
+        <v>1.825289865</v>
       </c>
       <c r="K10">
-        <v>6.6013213693664401</v>
+        <v>6.4738213693664397</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -1215,10 +1215,10 @@
         <v>5</v>
       </c>
       <c r="J11">
-        <v>1.3663922344999999</v>
+        <v>1.8563922344999999</v>
       </c>
       <c r="K11">
-        <v>6.77455810575856</v>
+        <v>6.6520581057585604</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -1229,10 +1229,10 @@
         <v>5</v>
       </c>
       <c r="J12">
-        <v>1.3262462800000001</v>
+        <v>2.3462462799999999</v>
       </c>
       <c r="K12">
-        <v>8.7291124026027394</v>
+        <v>8.4741124026027403</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -1243,10 +1243,10 @@
         <v>5</v>
       </c>
       <c r="J13">
-        <v>1.4190207674999999</v>
+        <v>2.6190207674999999</v>
       </c>
       <c r="K13">
-        <v>9.6179269999058192</v>
+        <v>9.3179269999058203</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -1257,10 +1257,10 @@
         <v>5</v>
       </c>
       <c r="J14">
-        <v>1.4888397</v>
+        <v>2.7188397000000002</v>
       </c>
       <c r="K14">
-        <v>9.7280133626712306</v>
+        <v>9.4205133626712296</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -1271,10 +1271,10 @@
         <v>5</v>
       </c>
       <c r="J15">
-        <v>1.5826404949999999</v>
+        <v>2.922640495</v>
       </c>
       <c r="K15">
-        <v>10.4793891913185</v>
+        <v>10.144389191318499</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -1285,10 +1285,10 @@
         <v>5</v>
       </c>
       <c r="J16">
-        <v>1.743148315</v>
+        <v>2.9131483149999999</v>
       </c>
       <c r="K16">
-        <v>10.4390362089212</v>
+        <v>10.1465362089212</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -1301,7 +1301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD14110-ED6A-49FB-83EF-4EF8F11E7CC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42BCEE25-CE5D-48D8-83AD-D698E4016365}">
   <dimension ref="I1:L406"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1327,10 +1327,10 @@
         <v>6</v>
       </c>
       <c r="J2">
-        <v>0.71686358800000005</v>
+        <v>1.106863588</v>
       </c>
       <c r="K2">
-        <v>2.51149191121918</v>
+        <v>2.4139919112191799</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -1341,10 +1341,10 @@
         <v>6</v>
       </c>
       <c r="J3">
-        <v>0.71686358800000005</v>
+        <v>1.106863588</v>
       </c>
       <c r="K3">
-        <v>2.51149191121918</v>
+        <v>2.4139919112191799</v>
       </c>
       <c r="L3">
         <v>1981</v>
@@ -1355,10 +1355,10 @@
         <v>6</v>
       </c>
       <c r="J4">
-        <v>0.71686358800000005</v>
+        <v>1.106863588</v>
       </c>
       <c r="K4">
-        <v>2.51149191121918</v>
+        <v>2.4139919112191799</v>
       </c>
       <c r="L4">
         <v>1981</v>
@@ -1369,10 +1369,10 @@
         <v>6</v>
       </c>
       <c r="J5">
-        <v>0.71686358800000005</v>
+        <v>1.106863588</v>
       </c>
       <c r="K5">
-        <v>2.51149191121918</v>
+        <v>2.4139919112191799</v>
       </c>
       <c r="L5">
         <v>1981</v>
@@ -1383,10 +1383,10 @@
         <v>6</v>
       </c>
       <c r="J6">
-        <v>0.71686358800000005</v>
+        <v>1.106863588</v>
       </c>
       <c r="K6">
-        <v>2.51149191121918</v>
+        <v>2.4139919112191799</v>
       </c>
       <c r="L6">
         <v>1981</v>
@@ -1397,10 +1397,10 @@
         <v>6</v>
       </c>
       <c r="J7">
-        <v>0.71686358800000005</v>
+        <v>1.106863588</v>
       </c>
       <c r="K7">
-        <v>2.51149191121918</v>
+        <v>2.4139919112191799</v>
       </c>
       <c r="L7">
         <v>1981</v>
@@ -1411,10 +1411,10 @@
         <v>6</v>
       </c>
       <c r="J8">
-        <v>0.71686358800000005</v>
+        <v>1.106863588</v>
       </c>
       <c r="K8">
-        <v>2.51149191121918</v>
+        <v>2.4139919112191799</v>
       </c>
       <c r="L8">
         <v>1981</v>
@@ -1425,10 +1425,10 @@
         <v>6</v>
       </c>
       <c r="J9">
-        <v>0.71686358800000005</v>
+        <v>1.106863588</v>
       </c>
       <c r="K9">
-        <v>2.51149191121918</v>
+        <v>2.4139919112191799</v>
       </c>
       <c r="L9">
         <v>1981</v>
@@ -1439,10 +1439,10 @@
         <v>6</v>
       </c>
       <c r="J10">
-        <v>0.71686358800000005</v>
+        <v>1.106863588</v>
       </c>
       <c r="K10">
-        <v>2.51149191121918</v>
+        <v>2.4139919112191799</v>
       </c>
       <c r="L10">
         <v>1981</v>
@@ -1453,10 +1453,10 @@
         <v>6</v>
       </c>
       <c r="J11">
-        <v>0.71686358800000005</v>
+        <v>1.106863588</v>
       </c>
       <c r="K11">
-        <v>2.51149191121918</v>
+        <v>2.4139919112191799</v>
       </c>
       <c r="L11">
         <v>1981</v>
@@ -1467,10 +1467,10 @@
         <v>6</v>
       </c>
       <c r="J12">
-        <v>0.71686358800000005</v>
+        <v>1.106863588</v>
       </c>
       <c r="K12">
-        <v>2.51149191121918</v>
+        <v>2.4139919112191799</v>
       </c>
       <c r="L12">
         <v>1981</v>
@@ -1481,10 +1481,10 @@
         <v>6</v>
       </c>
       <c r="J13">
-        <v>0.71686358800000005</v>
+        <v>1.106863588</v>
       </c>
       <c r="K13">
-        <v>2.51149191121918</v>
+        <v>2.4139919112191799</v>
       </c>
       <c r="L13">
         <v>1981</v>
@@ -1495,10 +1495,10 @@
         <v>6</v>
       </c>
       <c r="J14">
-        <v>0.71686358800000005</v>
+        <v>1.106863588</v>
       </c>
       <c r="K14">
-        <v>2.51149191121918</v>
+        <v>2.4139919112191799</v>
       </c>
       <c r="L14">
         <v>1981</v>
@@ -1509,10 +1509,10 @@
         <v>6</v>
       </c>
       <c r="J15">
-        <v>0.71686358800000005</v>
+        <v>1.106863588</v>
       </c>
       <c r="K15">
-        <v>2.51149191121918</v>
+        <v>2.4139919112191799</v>
       </c>
       <c r="L15">
         <v>1981</v>
@@ -1523,10 +1523,10 @@
         <v>6</v>
       </c>
       <c r="J16">
-        <v>0.71686358800000005</v>
+        <v>1.106863588</v>
       </c>
       <c r="K16">
-        <v>2.51149191121918</v>
+        <v>2.4139919112191799</v>
       </c>
       <c r="L16">
         <v>1981</v>
@@ -1537,10 +1537,10 @@
         <v>6</v>
       </c>
       <c r="J17">
-        <v>0.71686358800000005</v>
+        <v>1.106863588</v>
       </c>
       <c r="K17">
-        <v>2.51149191121918</v>
+        <v>2.4139919112191799</v>
       </c>
       <c r="L17">
         <v>1981</v>
@@ -1551,10 +1551,10 @@
         <v>6</v>
       </c>
       <c r="J18">
-        <v>0.71686358800000005</v>
+        <v>1.106863588</v>
       </c>
       <c r="K18">
-        <v>2.51149191121918</v>
+        <v>2.4139919112191799</v>
       </c>
       <c r="L18">
         <v>1981</v>
@@ -1565,10 +1565,10 @@
         <v>6</v>
       </c>
       <c r="J19">
-        <v>0.71686358800000005</v>
+        <v>1.106863588</v>
       </c>
       <c r="K19">
-        <v>2.51149191121918</v>
+        <v>2.4139919112191799</v>
       </c>
       <c r="L19">
         <v>1981</v>
@@ -1579,10 +1579,10 @@
         <v>6</v>
       </c>
       <c r="J20">
-        <v>0.71686358800000005</v>
+        <v>1.106863588</v>
       </c>
       <c r="K20">
-        <v>2.51149191121918</v>
+        <v>2.4139919112191799</v>
       </c>
       <c r="L20">
         <v>1981</v>
@@ -1593,10 +1593,10 @@
         <v>6</v>
       </c>
       <c r="J21">
-        <v>0.71686358800000005</v>
+        <v>1.106863588</v>
       </c>
       <c r="K21">
-        <v>2.51149191121918</v>
+        <v>2.4139919112191799</v>
       </c>
       <c r="L21">
         <v>1981</v>
@@ -1607,10 +1607,10 @@
         <v>6</v>
       </c>
       <c r="J22">
-        <v>0.71686358800000005</v>
+        <v>1.106863588</v>
       </c>
       <c r="K22">
-        <v>2.51149191121918</v>
+        <v>2.4139919112191799</v>
       </c>
       <c r="L22">
         <v>1981</v>
@@ -1621,10 +1621,10 @@
         <v>6</v>
       </c>
       <c r="J23">
-        <v>0.71686358800000005</v>
+        <v>1.106863588</v>
       </c>
       <c r="K23">
-        <v>2.51149191121918</v>
+        <v>2.4139919112191799</v>
       </c>
       <c r="L23">
         <v>1981</v>
@@ -1635,10 +1635,10 @@
         <v>6</v>
       </c>
       <c r="J24">
-        <v>0.71686358800000005</v>
+        <v>1.106863588</v>
       </c>
       <c r="K24">
-        <v>2.51149191121918</v>
+        <v>2.4139919112191799</v>
       </c>
       <c r="L24">
         <v>1981</v>
@@ -1649,10 +1649,10 @@
         <v>6</v>
       </c>
       <c r="J25">
-        <v>0.71686358800000005</v>
+        <v>1.106863588</v>
       </c>
       <c r="K25">
-        <v>2.51149191121918</v>
+        <v>2.4139919112191799</v>
       </c>
       <c r="L25">
         <v>1981</v>
@@ -1663,10 +1663,10 @@
         <v>6</v>
       </c>
       <c r="J26">
-        <v>0.71686358800000005</v>
+        <v>1.106863588</v>
       </c>
       <c r="K26">
-        <v>2.51149191121918</v>
+        <v>2.4139919112191799</v>
       </c>
       <c r="L26">
         <v>1981</v>
@@ -1677,10 +1677,10 @@
         <v>6</v>
       </c>
       <c r="J27">
-        <v>0.71686358800000005</v>
+        <v>1.106863588</v>
       </c>
       <c r="K27">
-        <v>2.51149191121918</v>
+        <v>2.4139919112191799</v>
       </c>
       <c r="L27">
         <v>1981</v>
@@ -1691,10 +1691,10 @@
         <v>6</v>
       </c>
       <c r="J28">
-        <v>0.71686358800000005</v>
+        <v>1.106863588</v>
       </c>
       <c r="K28">
-        <v>2.51149191121918</v>
+        <v>2.4139919112191799</v>
       </c>
       <c r="L28">
         <v>1981</v>
@@ -1705,10 +1705,10 @@
         <v>6</v>
       </c>
       <c r="J29">
-        <v>0.98018182399999998</v>
+        <v>0.89018182400000001</v>
       </c>
       <c r="K29">
-        <v>2.51525865358904</v>
+        <v>2.53775865358904</v>
       </c>
       <c r="L29">
         <v>1984</v>
@@ -1719,10 +1719,10 @@
         <v>6</v>
       </c>
       <c r="J30">
-        <v>0.98018182399999998</v>
+        <v>0.89018182400000001</v>
       </c>
       <c r="K30">
-        <v>2.51525865358904</v>
+        <v>2.53775865358904</v>
       </c>
       <c r="L30">
         <v>1984</v>
@@ -1733,10 +1733,10 @@
         <v>6</v>
       </c>
       <c r="J31">
-        <v>0.98018182399999998</v>
+        <v>0.89018182400000001</v>
       </c>
       <c r="K31">
-        <v>2.51525865358904</v>
+        <v>2.53775865358904</v>
       </c>
       <c r="L31">
         <v>1984</v>
@@ -1747,10 +1747,10 @@
         <v>6</v>
       </c>
       <c r="J32">
-        <v>0.98018182399999998</v>
+        <v>0.89018182400000001</v>
       </c>
       <c r="K32">
-        <v>2.51525865358904</v>
+        <v>2.53775865358904</v>
       </c>
       <c r="L32">
         <v>1984</v>
@@ -1761,10 +1761,10 @@
         <v>6</v>
       </c>
       <c r="J33">
-        <v>0.98018182399999998</v>
+        <v>0.89018182400000001</v>
       </c>
       <c r="K33">
-        <v>2.51525865358904</v>
+        <v>2.53775865358904</v>
       </c>
       <c r="L33">
         <v>1984</v>
@@ -1775,10 +1775,10 @@
         <v>6</v>
       </c>
       <c r="J34">
-        <v>0.98018182399999998</v>
+        <v>0.89018182400000001</v>
       </c>
       <c r="K34">
-        <v>2.51525865358904</v>
+        <v>2.53775865358904</v>
       </c>
       <c r="L34">
         <v>1984</v>
@@ -1789,10 +1789,10 @@
         <v>6</v>
       </c>
       <c r="J35">
-        <v>0.98018182399999998</v>
+        <v>0.89018182400000001</v>
       </c>
       <c r="K35">
-        <v>2.51525865358904</v>
+        <v>2.53775865358904</v>
       </c>
       <c r="L35">
         <v>1984</v>
@@ -1803,10 +1803,10 @@
         <v>6</v>
       </c>
       <c r="J36">
-        <v>0.98018182399999998</v>
+        <v>0.89018182400000001</v>
       </c>
       <c r="K36">
-        <v>2.51525865358904</v>
+        <v>2.53775865358904</v>
       </c>
       <c r="L36">
         <v>1984</v>
@@ -1817,10 +1817,10 @@
         <v>6</v>
       </c>
       <c r="J37">
-        <v>0.98018182399999998</v>
+        <v>0.89018182400000001</v>
       </c>
       <c r="K37">
-        <v>2.51525865358904</v>
+        <v>2.53775865358904</v>
       </c>
       <c r="L37">
         <v>1984</v>
@@ -1831,10 +1831,10 @@
         <v>6</v>
       </c>
       <c r="J38">
-        <v>0.98018182399999998</v>
+        <v>0.89018182400000001</v>
       </c>
       <c r="K38">
-        <v>2.51525865358904</v>
+        <v>2.53775865358904</v>
       </c>
       <c r="L38">
         <v>1984</v>
@@ -1845,10 +1845,10 @@
         <v>6</v>
       </c>
       <c r="J39">
-        <v>0.98018182399999998</v>
+        <v>0.89018182400000001</v>
       </c>
       <c r="K39">
-        <v>2.51525865358904</v>
+        <v>2.53775865358904</v>
       </c>
       <c r="L39">
         <v>1984</v>
@@ -1859,10 +1859,10 @@
         <v>6</v>
       </c>
       <c r="J40">
-        <v>0.98018182399999998</v>
+        <v>0.89018182400000001</v>
       </c>
       <c r="K40">
-        <v>2.51525865358904</v>
+        <v>2.53775865358904</v>
       </c>
       <c r="L40">
         <v>1984</v>
@@ -1873,10 +1873,10 @@
         <v>6</v>
       </c>
       <c r="J41">
-        <v>0.98018182399999998</v>
+        <v>0.89018182400000001</v>
       </c>
       <c r="K41">
-        <v>2.51525865358904</v>
+        <v>2.53775865358904</v>
       </c>
       <c r="L41">
         <v>1984</v>
@@ -1887,10 +1887,10 @@
         <v>6</v>
       </c>
       <c r="J42">
-        <v>0.98018182399999998</v>
+        <v>0.89018182400000001</v>
       </c>
       <c r="K42">
-        <v>2.51525865358904</v>
+        <v>2.53775865358904</v>
       </c>
       <c r="L42">
         <v>1984</v>
@@ -1901,10 +1901,10 @@
         <v>6</v>
       </c>
       <c r="J43">
-        <v>0.98018182399999998</v>
+        <v>0.89018182400000001</v>
       </c>
       <c r="K43">
-        <v>2.51525865358904</v>
+        <v>2.53775865358904</v>
       </c>
       <c r="L43">
         <v>1984</v>
@@ -1915,10 +1915,10 @@
         <v>6</v>
       </c>
       <c r="J44">
-        <v>0.98018182399999998</v>
+        <v>0.89018182400000001</v>
       </c>
       <c r="K44">
-        <v>2.51525865358904</v>
+        <v>2.53775865358904</v>
       </c>
       <c r="L44">
         <v>1984</v>
@@ -1929,10 +1929,10 @@
         <v>6</v>
       </c>
       <c r="J45">
-        <v>0.98018182399999998</v>
+        <v>0.89018182400000001</v>
       </c>
       <c r="K45">
-        <v>2.51525865358904</v>
+        <v>2.53775865358904</v>
       </c>
       <c r="L45">
         <v>1984</v>
@@ -1943,10 +1943,10 @@
         <v>6</v>
       </c>
       <c r="J46">
-        <v>0.98018182399999998</v>
+        <v>0.89018182400000001</v>
       </c>
       <c r="K46">
-        <v>2.51525865358904</v>
+        <v>2.53775865358904</v>
       </c>
       <c r="L46">
         <v>1984</v>
@@ -1957,10 +1957,10 @@
         <v>6</v>
       </c>
       <c r="J47">
-        <v>0.98018182399999998</v>
+        <v>0.89018182400000001</v>
       </c>
       <c r="K47">
-        <v>2.51525865358904</v>
+        <v>2.53775865358904</v>
       </c>
       <c r="L47">
         <v>1984</v>
@@ -1971,10 +1971,10 @@
         <v>6</v>
       </c>
       <c r="J48">
-        <v>0.98018182399999998</v>
+        <v>0.89018182400000001</v>
       </c>
       <c r="K48">
-        <v>2.51525865358904</v>
+        <v>2.53775865358904</v>
       </c>
       <c r="L48">
         <v>1984</v>
@@ -1985,10 +1985,10 @@
         <v>6</v>
       </c>
       <c r="J49">
-        <v>0.98018182399999998</v>
+        <v>0.89018182400000001</v>
       </c>
       <c r="K49">
-        <v>2.51525865358904</v>
+        <v>2.53775865358904</v>
       </c>
       <c r="L49">
         <v>1984</v>
@@ -1999,10 +1999,10 @@
         <v>6</v>
       </c>
       <c r="J50">
-        <v>0.98018182399999998</v>
+        <v>0.89018182400000001</v>
       </c>
       <c r="K50">
-        <v>2.51525865358904</v>
+        <v>2.53775865358904</v>
       </c>
       <c r="L50">
         <v>1984</v>
@@ -2013,10 +2013,10 @@
         <v>6</v>
       </c>
       <c r="J51">
-        <v>0.98018182399999998</v>
+        <v>0.89018182400000001</v>
       </c>
       <c r="K51">
-        <v>2.51525865358904</v>
+        <v>2.53775865358904</v>
       </c>
       <c r="L51">
         <v>1984</v>
@@ -2027,10 +2027,10 @@
         <v>6</v>
       </c>
       <c r="J52">
-        <v>0.98018182399999998</v>
+        <v>0.89018182400000001</v>
       </c>
       <c r="K52">
-        <v>2.51525865358904</v>
+        <v>2.53775865358904</v>
       </c>
       <c r="L52">
         <v>1984</v>
@@ -2041,10 +2041,10 @@
         <v>6</v>
       </c>
       <c r="J53">
-        <v>0.98018182399999998</v>
+        <v>0.89018182400000001</v>
       </c>
       <c r="K53">
-        <v>2.51525865358904</v>
+        <v>2.53775865358904</v>
       </c>
       <c r="L53">
         <v>1984</v>
@@ -2055,10 +2055,10 @@
         <v>6</v>
       </c>
       <c r="J54">
-        <v>0.98018182399999998</v>
+        <v>0.89018182400000001</v>
       </c>
       <c r="K54">
-        <v>2.51525865358904</v>
+        <v>2.53775865358904</v>
       </c>
       <c r="L54">
         <v>1984</v>
@@ -2069,10 +2069,10 @@
         <v>6</v>
       </c>
       <c r="J55">
-        <v>0.98018182399999998</v>
+        <v>0.89018182400000001</v>
       </c>
       <c r="K55">
-        <v>2.51525865358904</v>
+        <v>2.53775865358904</v>
       </c>
       <c r="L55">
         <v>1984</v>
@@ -2083,10 +2083,10 @@
         <v>6</v>
       </c>
       <c r="J56">
-        <v>1.073356416</v>
+        <v>1.0333564159999999</v>
       </c>
       <c r="K56">
-        <v>2.7922230877808198</v>
+        <v>2.8022230877808201</v>
       </c>
       <c r="L56">
         <v>1990</v>
@@ -2097,10 +2097,10 @@
         <v>6</v>
       </c>
       <c r="J57">
-        <v>1.073356416</v>
+        <v>1.0333564159999999</v>
       </c>
       <c r="K57">
-        <v>2.7922230877808198</v>
+        <v>2.8022230877808201</v>
       </c>
       <c r="L57">
         <v>1990</v>
@@ -2111,10 +2111,10 @@
         <v>6</v>
       </c>
       <c r="J58">
-        <v>1.073356416</v>
+        <v>1.0333564159999999</v>
       </c>
       <c r="K58">
-        <v>2.7922230877808198</v>
+        <v>2.8022230877808201</v>
       </c>
       <c r="L58">
         <v>1990</v>
@@ -2125,10 +2125,10 @@
         <v>6</v>
       </c>
       <c r="J59">
-        <v>1.073356416</v>
+        <v>1.0333564159999999</v>
       </c>
       <c r="K59">
-        <v>2.7922230877808198</v>
+        <v>2.8022230877808201</v>
       </c>
       <c r="L59">
         <v>1990</v>
@@ -2139,10 +2139,10 @@
         <v>6</v>
       </c>
       <c r="J60">
-        <v>1.073356416</v>
+        <v>1.0333564159999999</v>
       </c>
       <c r="K60">
-        <v>2.7922230877808198</v>
+        <v>2.8022230877808201</v>
       </c>
       <c r="L60">
         <v>1990</v>
@@ -2153,10 +2153,10 @@
         <v>6</v>
       </c>
       <c r="J61">
-        <v>1.073356416</v>
+        <v>1.0333564159999999</v>
       </c>
       <c r="K61">
-        <v>2.7922230877808198</v>
+        <v>2.8022230877808201</v>
       </c>
       <c r="L61">
         <v>1990</v>
@@ -2167,10 +2167,10 @@
         <v>6</v>
       </c>
       <c r="J62">
-        <v>1.073356416</v>
+        <v>1.0333564159999999</v>
       </c>
       <c r="K62">
-        <v>2.7922230877808198</v>
+        <v>2.8022230877808201</v>
       </c>
       <c r="L62">
         <v>1990</v>
@@ -2181,10 +2181,10 @@
         <v>6</v>
       </c>
       <c r="J63">
-        <v>1.073356416</v>
+        <v>1.0333564159999999</v>
       </c>
       <c r="K63">
-        <v>2.7922230877808198</v>
+        <v>2.8022230877808201</v>
       </c>
       <c r="L63">
         <v>1990</v>
@@ -2195,10 +2195,10 @@
         <v>6</v>
       </c>
       <c r="J64">
-        <v>1.073356416</v>
+        <v>1.0333564159999999</v>
       </c>
       <c r="K64">
-        <v>2.7922230877808198</v>
+        <v>2.8022230877808201</v>
       </c>
       <c r="L64">
         <v>1990</v>
@@ -2209,10 +2209,10 @@
         <v>6</v>
       </c>
       <c r="J65">
-        <v>1.073356416</v>
+        <v>1.0333564159999999</v>
       </c>
       <c r="K65">
-        <v>2.7922230877808198</v>
+        <v>2.8022230877808201</v>
       </c>
       <c r="L65">
         <v>1990</v>
@@ -2223,10 +2223,10 @@
         <v>6</v>
       </c>
       <c r="J66">
-        <v>1.073356416</v>
+        <v>1.0333564159999999</v>
       </c>
       <c r="K66">
-        <v>2.7922230877808198</v>
+        <v>2.8022230877808201</v>
       </c>
       <c r="L66">
         <v>1990</v>
@@ -2237,10 +2237,10 @@
         <v>6</v>
       </c>
       <c r="J67">
-        <v>1.073356416</v>
+        <v>1.0333564159999999</v>
       </c>
       <c r="K67">
-        <v>2.7922230877808198</v>
+        <v>2.8022230877808201</v>
       </c>
       <c r="L67">
         <v>1990</v>
@@ -2251,10 +2251,10 @@
         <v>6</v>
       </c>
       <c r="J68">
-        <v>1.073356416</v>
+        <v>1.0333564159999999</v>
       </c>
       <c r="K68">
-        <v>2.7922230877808198</v>
+        <v>2.8022230877808201</v>
       </c>
       <c r="L68">
         <v>1990</v>
@@ -2265,10 +2265,10 @@
         <v>6</v>
       </c>
       <c r="J69">
-        <v>1.073356416</v>
+        <v>1.0333564159999999</v>
       </c>
       <c r="K69">
-        <v>2.7922230877808198</v>
+        <v>2.8022230877808201</v>
       </c>
       <c r="L69">
         <v>1990</v>
@@ -2279,10 +2279,10 @@
         <v>6</v>
       </c>
       <c r="J70">
-        <v>1.073356416</v>
+        <v>1.0333564159999999</v>
       </c>
       <c r="K70">
-        <v>2.7922230877808198</v>
+        <v>2.8022230877808201</v>
       </c>
       <c r="L70">
         <v>1990</v>
@@ -2293,10 +2293,10 @@
         <v>6</v>
       </c>
       <c r="J71">
-        <v>1.073356416</v>
+        <v>1.0333564159999999</v>
       </c>
       <c r="K71">
-        <v>2.7922230877808198</v>
+        <v>2.8022230877808201</v>
       </c>
       <c r="L71">
         <v>1990</v>
@@ -2307,10 +2307,10 @@
         <v>6</v>
       </c>
       <c r="J72">
-        <v>1.073356416</v>
+        <v>1.0333564159999999</v>
       </c>
       <c r="K72">
-        <v>2.7922230877808198</v>
+        <v>2.8022230877808201</v>
       </c>
       <c r="L72">
         <v>1990</v>
@@ -2321,10 +2321,10 @@
         <v>6</v>
       </c>
       <c r="J73">
-        <v>1.073356416</v>
+        <v>1.0333564159999999</v>
       </c>
       <c r="K73">
-        <v>2.7922230877808198</v>
+        <v>2.8022230877808201</v>
       </c>
       <c r="L73">
         <v>1990</v>
@@ -2335,10 +2335,10 @@
         <v>6</v>
       </c>
       <c r="J74">
-        <v>1.073356416</v>
+        <v>1.0333564159999999</v>
       </c>
       <c r="K74">
-        <v>2.7922230877808198</v>
+        <v>2.8022230877808201</v>
       </c>
       <c r="L74">
         <v>1990</v>
@@ -2349,10 +2349,10 @@
         <v>6</v>
       </c>
       <c r="J75">
-        <v>1.073356416</v>
+        <v>1.0333564159999999</v>
       </c>
       <c r="K75">
-        <v>2.7922230877808198</v>
+        <v>2.8022230877808201</v>
       </c>
       <c r="L75">
         <v>1990</v>
@@ -2363,10 +2363,10 @@
         <v>6</v>
       </c>
       <c r="J76">
-        <v>1.073356416</v>
+        <v>1.0333564159999999</v>
       </c>
       <c r="K76">
-        <v>2.7922230877808198</v>
+        <v>2.8022230877808201</v>
       </c>
       <c r="L76">
         <v>1990</v>
@@ -2377,10 +2377,10 @@
         <v>6</v>
       </c>
       <c r="J77">
-        <v>1.073356416</v>
+        <v>1.0333564159999999</v>
       </c>
       <c r="K77">
-        <v>2.7922230877808198</v>
+        <v>2.8022230877808201</v>
       </c>
       <c r="L77">
         <v>1990</v>
@@ -2391,10 +2391,10 @@
         <v>6</v>
       </c>
       <c r="J78">
-        <v>1.073356416</v>
+        <v>1.0333564159999999</v>
       </c>
       <c r="K78">
-        <v>2.7922230877808198</v>
+        <v>2.8022230877808201</v>
       </c>
       <c r="L78">
         <v>1990</v>
@@ -2405,10 +2405,10 @@
         <v>6</v>
       </c>
       <c r="J79">
-        <v>1.073356416</v>
+        <v>1.0333564159999999</v>
       </c>
       <c r="K79">
-        <v>2.7922230877808198</v>
+        <v>2.8022230877808201</v>
       </c>
       <c r="L79">
         <v>1990</v>
@@ -2419,10 +2419,10 @@
         <v>6</v>
       </c>
       <c r="J80">
-        <v>1.073356416</v>
+        <v>1.0333564159999999</v>
       </c>
       <c r="K80">
-        <v>2.7922230877808198</v>
+        <v>2.8022230877808201</v>
       </c>
       <c r="L80">
         <v>1990</v>
@@ -2433,10 +2433,10 @@
         <v>6</v>
       </c>
       <c r="J81">
-        <v>1.073356416</v>
+        <v>1.0333564159999999</v>
       </c>
       <c r="K81">
-        <v>2.7922230877808198</v>
+        <v>2.8022230877808201</v>
       </c>
       <c r="L81">
         <v>1990</v>
@@ -2447,10 +2447,10 @@
         <v>6</v>
       </c>
       <c r="J82">
-        <v>1.073356416</v>
+        <v>1.0333564159999999</v>
       </c>
       <c r="K82">
-        <v>2.7922230877808198</v>
+        <v>2.8022230877808201</v>
       </c>
       <c r="L82">
         <v>1990</v>
@@ -2461,10 +2461,10 @@
         <v>6</v>
       </c>
       <c r="J83">
-        <v>1.093738909</v>
+        <v>0.97373890900000004</v>
       </c>
       <c r="K83">
-        <v>2.6503381494623302</v>
+        <v>2.68033814946233</v>
       </c>
       <c r="L83">
         <v>1987</v>
@@ -2475,10 +2475,10 @@
         <v>6</v>
       </c>
       <c r="J84">
-        <v>1.093738909</v>
+        <v>0.97373890900000004</v>
       </c>
       <c r="K84">
-        <v>2.6503381494623302</v>
+        <v>2.68033814946233</v>
       </c>
       <c r="L84">
         <v>1987</v>
@@ -2489,10 +2489,10 @@
         <v>6</v>
       </c>
       <c r="J85">
-        <v>1.093738909</v>
+        <v>0.97373890900000004</v>
       </c>
       <c r="K85">
-        <v>2.6503381494623302</v>
+        <v>2.68033814946233</v>
       </c>
       <c r="L85">
         <v>1987</v>
@@ -2503,10 +2503,10 @@
         <v>6</v>
       </c>
       <c r="J86">
-        <v>1.093738909</v>
+        <v>0.97373890900000004</v>
       </c>
       <c r="K86">
-        <v>2.6503381494623302</v>
+        <v>2.68033814946233</v>
       </c>
       <c r="L86">
         <v>1987</v>
@@ -2517,10 +2517,10 @@
         <v>6</v>
       </c>
       <c r="J87">
-        <v>1.093738909</v>
+        <v>0.97373890900000004</v>
       </c>
       <c r="K87">
-        <v>2.6503381494623302</v>
+        <v>2.68033814946233</v>
       </c>
       <c r="L87">
         <v>1987</v>
@@ -2531,10 +2531,10 @@
         <v>6</v>
       </c>
       <c r="J88">
-        <v>1.093738909</v>
+        <v>0.97373890900000004</v>
       </c>
       <c r="K88">
-        <v>2.6503381494623302</v>
+        <v>2.68033814946233</v>
       </c>
       <c r="L88">
         <v>1987</v>
@@ -2545,10 +2545,10 @@
         <v>6</v>
       </c>
       <c r="J89">
-        <v>1.093738909</v>
+        <v>0.97373890900000004</v>
       </c>
       <c r="K89">
-        <v>2.6503381494623302</v>
+        <v>2.68033814946233</v>
       </c>
       <c r="L89">
         <v>1987</v>
@@ -2559,10 +2559,10 @@
         <v>6</v>
       </c>
       <c r="J90">
-        <v>1.093738909</v>
+        <v>0.97373890900000004</v>
       </c>
       <c r="K90">
-        <v>2.6503381494623302</v>
+        <v>2.68033814946233</v>
       </c>
       <c r="L90">
         <v>1987</v>
@@ -2573,10 +2573,10 @@
         <v>6</v>
       </c>
       <c r="J91">
-        <v>1.093738909</v>
+        <v>0.97373890900000004</v>
       </c>
       <c r="K91">
-        <v>2.6503381494623302</v>
+        <v>2.68033814946233</v>
       </c>
       <c r="L91">
         <v>1987</v>
@@ -2587,10 +2587,10 @@
         <v>6</v>
       </c>
       <c r="J92">
-        <v>1.093738909</v>
+        <v>0.97373890900000004</v>
       </c>
       <c r="K92">
-        <v>2.6503381494623302</v>
+        <v>2.68033814946233</v>
       </c>
       <c r="L92">
         <v>1987</v>
@@ -2601,10 +2601,10 @@
         <v>6</v>
       </c>
       <c r="J93">
-        <v>1.093738909</v>
+        <v>0.97373890900000004</v>
       </c>
       <c r="K93">
-        <v>2.6503381494623302</v>
+        <v>2.68033814946233</v>
       </c>
       <c r="L93">
         <v>1987</v>
@@ -2615,10 +2615,10 @@
         <v>6</v>
       </c>
       <c r="J94">
-        <v>1.093738909</v>
+        <v>0.97373890900000004</v>
       </c>
       <c r="K94">
-        <v>2.6503381494623302</v>
+        <v>2.68033814946233</v>
       </c>
       <c r="L94">
         <v>1987</v>
@@ -2629,10 +2629,10 @@
         <v>6</v>
       </c>
       <c r="J95">
-        <v>1.093738909</v>
+        <v>0.97373890900000004</v>
       </c>
       <c r="K95">
-        <v>2.6503381494623302</v>
+        <v>2.68033814946233</v>
       </c>
       <c r="L95">
         <v>1987</v>
@@ -2643,10 +2643,10 @@
         <v>6</v>
       </c>
       <c r="J96">
-        <v>1.093738909</v>
+        <v>0.97373890900000004</v>
       </c>
       <c r="K96">
-        <v>2.6503381494623302</v>
+        <v>2.68033814946233</v>
       </c>
       <c r="L96">
         <v>1987</v>
@@ -2657,10 +2657,10 @@
         <v>6</v>
       </c>
       <c r="J97">
-        <v>1.093738909</v>
+        <v>0.97373890900000004</v>
       </c>
       <c r="K97">
-        <v>2.6503381494623302</v>
+        <v>2.68033814946233</v>
       </c>
       <c r="L97">
         <v>1987</v>
@@ -2671,10 +2671,10 @@
         <v>6</v>
       </c>
       <c r="J98">
-        <v>1.093738909</v>
+        <v>0.97373890900000004</v>
       </c>
       <c r="K98">
-        <v>2.6503381494623302</v>
+        <v>2.68033814946233</v>
       </c>
       <c r="L98">
         <v>1987</v>
@@ -2685,10 +2685,10 @@
         <v>6</v>
       </c>
       <c r="J99">
-        <v>1.093738909</v>
+        <v>0.97373890900000004</v>
       </c>
       <c r="K99">
-        <v>2.6503381494623302</v>
+        <v>2.68033814946233</v>
       </c>
       <c r="L99">
         <v>1987</v>
@@ -2699,10 +2699,10 @@
         <v>6</v>
       </c>
       <c r="J100">
-        <v>1.093738909</v>
+        <v>0.97373890900000004</v>
       </c>
       <c r="K100">
-        <v>2.6503381494623302</v>
+        <v>2.68033814946233</v>
       </c>
       <c r="L100">
         <v>1987</v>
@@ -2713,10 +2713,10 @@
         <v>6</v>
       </c>
       <c r="J101">
-        <v>1.093738909</v>
+        <v>0.97373890900000004</v>
       </c>
       <c r="K101">
-        <v>2.6503381494623302</v>
+        <v>2.68033814946233</v>
       </c>
       <c r="L101">
         <v>1987</v>
@@ -2727,10 +2727,10 @@
         <v>6</v>
       </c>
       <c r="J102">
-        <v>1.093738909</v>
+        <v>0.97373890900000004</v>
       </c>
       <c r="K102">
-        <v>2.6503381494623302</v>
+        <v>2.68033814946233</v>
       </c>
       <c r="L102">
         <v>1987</v>
@@ -2741,10 +2741,10 @@
         <v>6</v>
       </c>
       <c r="J103">
-        <v>1.093738909</v>
+        <v>0.97373890900000004</v>
       </c>
       <c r="K103">
-        <v>2.6503381494623302</v>
+        <v>2.68033814946233</v>
       </c>
       <c r="L103">
         <v>1987</v>
@@ -2755,10 +2755,10 @@
         <v>6</v>
       </c>
       <c r="J104">
-        <v>1.093738909</v>
+        <v>0.97373890900000004</v>
       </c>
       <c r="K104">
-        <v>2.6503381494623302</v>
+        <v>2.68033814946233</v>
       </c>
       <c r="L104">
         <v>1987</v>
@@ -2769,10 +2769,10 @@
         <v>6</v>
       </c>
       <c r="J105">
-        <v>1.093738909</v>
+        <v>0.97373890900000004</v>
       </c>
       <c r="K105">
-        <v>2.6503381494623302</v>
+        <v>2.68033814946233</v>
       </c>
       <c r="L105">
         <v>1987</v>
@@ -2783,10 +2783,10 @@
         <v>6</v>
       </c>
       <c r="J106">
-        <v>1.093738909</v>
+        <v>0.97373890900000004</v>
       </c>
       <c r="K106">
-        <v>2.6503381494623302</v>
+        <v>2.68033814946233</v>
       </c>
       <c r="L106">
         <v>1987</v>
@@ -2797,10 +2797,10 @@
         <v>6</v>
       </c>
       <c r="J107">
-        <v>1.093738909</v>
+        <v>0.97373890900000004</v>
       </c>
       <c r="K107">
-        <v>2.6503381494623302</v>
+        <v>2.68033814946233</v>
       </c>
       <c r="L107">
         <v>1987</v>
@@ -2811,10 +2811,10 @@
         <v>6</v>
       </c>
       <c r="J108">
-        <v>1.093738909</v>
+        <v>0.97373890900000004</v>
       </c>
       <c r="K108">
-        <v>2.6503381494623302</v>
+        <v>2.68033814946233</v>
       </c>
       <c r="L108">
         <v>1987</v>
@@ -2825,10 +2825,10 @@
         <v>6</v>
       </c>
       <c r="J109">
-        <v>1.093738909</v>
+        <v>0.97373890900000004</v>
       </c>
       <c r="K109">
-        <v>2.6503381494623302</v>
+        <v>2.68033814946233</v>
       </c>
       <c r="L109">
         <v>1987</v>
@@ -2839,10 +2839,10 @@
         <v>6</v>
       </c>
       <c r="J110">
-        <v>1.118976883</v>
+        <v>1.0589768829999999</v>
       </c>
       <c r="K110">
-        <v>2.8083850943184898</v>
+        <v>2.8233850943184899</v>
       </c>
       <c r="L110">
         <v>1993</v>
@@ -2853,10 +2853,10 @@
         <v>6</v>
       </c>
       <c r="J111">
-        <v>1.118976883</v>
+        <v>1.0589768829999999</v>
       </c>
       <c r="K111">
-        <v>2.8083850943184898</v>
+        <v>2.8233850943184899</v>
       </c>
       <c r="L111">
         <v>1993</v>
@@ -2867,10 +2867,10 @@
         <v>6</v>
       </c>
       <c r="J112">
-        <v>1.118976883</v>
+        <v>1.0589768829999999</v>
       </c>
       <c r="K112">
-        <v>2.8083850943184898</v>
+        <v>2.8233850943184899</v>
       </c>
       <c r="L112">
         <v>1993</v>
@@ -2881,10 +2881,10 @@
         <v>6</v>
       </c>
       <c r="J113">
-        <v>1.118976883</v>
+        <v>1.0589768829999999</v>
       </c>
       <c r="K113">
-        <v>2.8083850943184898</v>
+        <v>2.8233850943184899</v>
       </c>
       <c r="L113">
         <v>1993</v>
@@ -2895,10 +2895,10 @@
         <v>6</v>
       </c>
       <c r="J114">
-        <v>1.118976883</v>
+        <v>1.0589768829999999</v>
       </c>
       <c r="K114">
-        <v>2.8083850943184898</v>
+        <v>2.8233850943184899</v>
       </c>
       <c r="L114">
         <v>1993</v>
@@ -2909,10 +2909,10 @@
         <v>6</v>
       </c>
       <c r="J115">
-        <v>1.118976883</v>
+        <v>1.0589768829999999</v>
       </c>
       <c r="K115">
-        <v>2.8083850943184898</v>
+        <v>2.8233850943184899</v>
       </c>
       <c r="L115">
         <v>1993</v>
@@ -2923,10 +2923,10 @@
         <v>6</v>
       </c>
       <c r="J116">
-        <v>1.118976883</v>
+        <v>1.0589768829999999</v>
       </c>
       <c r="K116">
-        <v>2.8083850943184898</v>
+        <v>2.8233850943184899</v>
       </c>
       <c r="L116">
         <v>1993</v>
@@ -2937,10 +2937,10 @@
         <v>6</v>
       </c>
       <c r="J117">
-        <v>1.118976883</v>
+        <v>1.0589768829999999</v>
       </c>
       <c r="K117">
-        <v>2.8083850943184898</v>
+        <v>2.8233850943184899</v>
       </c>
       <c r="L117">
         <v>1993</v>
@@ -2951,10 +2951,10 @@
         <v>6</v>
       </c>
       <c r="J118">
-        <v>1.118976883</v>
+        <v>1.0589768829999999</v>
       </c>
       <c r="K118">
-        <v>2.8083850943184898</v>
+        <v>2.8233850943184899</v>
       </c>
       <c r="L118">
         <v>1993</v>
@@ -2965,10 +2965,10 @@
         <v>6</v>
       </c>
       <c r="J119">
-        <v>1.118976883</v>
+        <v>1.0589768829999999</v>
       </c>
       <c r="K119">
-        <v>2.8083850943184898</v>
+        <v>2.8233850943184899</v>
       </c>
       <c r="L119">
         <v>1993</v>
@@ -2979,10 +2979,10 @@
         <v>6</v>
       </c>
       <c r="J120">
-        <v>1.118976883</v>
+        <v>1.0589768829999999</v>
       </c>
       <c r="K120">
-        <v>2.8083850943184898</v>
+        <v>2.8233850943184899</v>
       </c>
       <c r="L120">
         <v>1993</v>
@@ -2993,10 +2993,10 @@
         <v>6</v>
       </c>
       <c r="J121">
-        <v>1.118976883</v>
+        <v>1.0589768829999999</v>
       </c>
       <c r="K121">
-        <v>2.8083850943184898</v>
+        <v>2.8233850943184899</v>
       </c>
       <c r="L121">
         <v>1993</v>
@@ -3007,10 +3007,10 @@
         <v>6</v>
       </c>
       <c r="J122">
-        <v>1.118976883</v>
+        <v>1.0589768829999999</v>
       </c>
       <c r="K122">
-        <v>2.8083850943184898</v>
+        <v>2.8233850943184899</v>
       </c>
       <c r="L122">
         <v>1993</v>
@@ -3021,10 +3021,10 @@
         <v>6</v>
       </c>
       <c r="J123">
-        <v>1.118976883</v>
+        <v>1.0589768829999999</v>
       </c>
       <c r="K123">
-        <v>2.8083850943184898</v>
+        <v>2.8233850943184899</v>
       </c>
       <c r="L123">
         <v>1993</v>
@@ -3035,10 +3035,10 @@
         <v>6</v>
       </c>
       <c r="J124">
-        <v>1.118976883</v>
+        <v>1.0589768829999999</v>
       </c>
       <c r="K124">
-        <v>2.8083850943184898</v>
+        <v>2.8233850943184899</v>
       </c>
       <c r="L124">
         <v>1993</v>
@@ -3049,10 +3049,10 @@
         <v>6</v>
       </c>
       <c r="J125">
-        <v>1.118976883</v>
+        <v>1.0589768829999999</v>
       </c>
       <c r="K125">
-        <v>2.8083850943184898</v>
+        <v>2.8233850943184899</v>
       </c>
       <c r="L125">
         <v>1993</v>
@@ -3063,10 +3063,10 @@
         <v>6</v>
       </c>
       <c r="J126">
-        <v>1.118976883</v>
+        <v>1.0589768829999999</v>
       </c>
       <c r="K126">
-        <v>2.8083850943184898</v>
+        <v>2.8233850943184899</v>
       </c>
       <c r="L126">
         <v>1993</v>
@@ -3077,10 +3077,10 @@
         <v>6</v>
       </c>
       <c r="J127">
-        <v>1.118976883</v>
+        <v>1.0589768829999999</v>
       </c>
       <c r="K127">
-        <v>2.8083850943184898</v>
+        <v>2.8233850943184899</v>
       </c>
       <c r="L127">
         <v>1993</v>
@@ -3091,10 +3091,10 @@
         <v>6</v>
       </c>
       <c r="J128">
-        <v>1.118976883</v>
+        <v>1.0589768829999999</v>
       </c>
       <c r="K128">
-        <v>2.8083850943184898</v>
+        <v>2.8233850943184899</v>
       </c>
       <c r="L128">
         <v>1993</v>
@@ -3105,10 +3105,10 @@
         <v>6</v>
       </c>
       <c r="J129">
-        <v>1.118976883</v>
+        <v>1.0589768829999999</v>
       </c>
       <c r="K129">
-        <v>2.8083850943184898</v>
+        <v>2.8233850943184899</v>
       </c>
       <c r="L129">
         <v>1993</v>
@@ -3119,10 +3119,10 @@
         <v>6</v>
       </c>
       <c r="J130">
-        <v>1.118976883</v>
+        <v>1.0589768829999999</v>
       </c>
       <c r="K130">
-        <v>2.8083850943184898</v>
+        <v>2.8233850943184899</v>
       </c>
       <c r="L130">
         <v>1993</v>
@@ -3133,10 +3133,10 @@
         <v>6</v>
       </c>
       <c r="J131">
-        <v>1.118976883</v>
+        <v>1.0589768829999999</v>
       </c>
       <c r="K131">
-        <v>2.8083850943184898</v>
+        <v>2.8233850943184899</v>
       </c>
       <c r="L131">
         <v>1993</v>
@@ -3147,10 +3147,10 @@
         <v>6</v>
       </c>
       <c r="J132">
-        <v>1.118976883</v>
+        <v>1.0589768829999999</v>
       </c>
       <c r="K132">
-        <v>2.8083850943184898</v>
+        <v>2.8233850943184899</v>
       </c>
       <c r="L132">
         <v>1993</v>
@@ -3161,10 +3161,10 @@
         <v>6</v>
       </c>
       <c r="J133">
-        <v>1.118976883</v>
+        <v>1.0589768829999999</v>
       </c>
       <c r="K133">
-        <v>2.8083850943184898</v>
+        <v>2.8233850943184899</v>
       </c>
       <c r="L133">
         <v>1993</v>
@@ -3175,10 +3175,10 @@
         <v>6</v>
       </c>
       <c r="J134">
-        <v>1.118976883</v>
+        <v>1.0589768829999999</v>
       </c>
       <c r="K134">
-        <v>2.8083850943184898</v>
+        <v>2.8233850943184899</v>
       </c>
       <c r="L134">
         <v>1993</v>
@@ -3189,10 +3189,10 @@
         <v>6</v>
       </c>
       <c r="J135">
-        <v>1.118976883</v>
+        <v>1.0589768829999999</v>
       </c>
       <c r="K135">
-        <v>2.8083850943184898</v>
+        <v>2.8233850943184899</v>
       </c>
       <c r="L135">
         <v>1993</v>
@@ -3203,10 +3203,10 @@
         <v>6</v>
       </c>
       <c r="J136">
-        <v>1.118976883</v>
+        <v>1.0589768829999999</v>
       </c>
       <c r="K136">
-        <v>2.8083850943184898</v>
+        <v>2.8233850943184899</v>
       </c>
       <c r="L136">
         <v>1993</v>
@@ -3217,10 +3217,10 @@
         <v>6</v>
       </c>
       <c r="J137">
-        <v>1.2730812300000001</v>
+        <v>1.0930812299999999</v>
       </c>
       <c r="K137">
-        <v>2.8961680486643799</v>
+        <v>2.9411680486643799</v>
       </c>
       <c r="L137">
         <v>1996</v>
@@ -3231,10 +3231,10 @@
         <v>6</v>
       </c>
       <c r="J138">
-        <v>1.2730812300000001</v>
+        <v>1.0930812299999999</v>
       </c>
       <c r="K138">
-        <v>2.8961680486643799</v>
+        <v>2.9411680486643799</v>
       </c>
       <c r="L138">
         <v>1996</v>
@@ -3245,10 +3245,10 @@
         <v>6</v>
       </c>
       <c r="J139">
-        <v>1.2730812300000001</v>
+        <v>1.0930812299999999</v>
       </c>
       <c r="K139">
-        <v>2.8961680486643799</v>
+        <v>2.9411680486643799</v>
       </c>
       <c r="L139">
         <v>1996</v>
@@ -3259,10 +3259,10 @@
         <v>6</v>
       </c>
       <c r="J140">
-        <v>1.2730812300000001</v>
+        <v>1.0930812299999999</v>
       </c>
       <c r="K140">
-        <v>2.8961680486643799</v>
+        <v>2.9411680486643799</v>
       </c>
       <c r="L140">
         <v>1996</v>
@@ -3273,10 +3273,10 @@
         <v>6</v>
       </c>
       <c r="J141">
-        <v>1.2730812300000001</v>
+        <v>1.0930812299999999</v>
       </c>
       <c r="K141">
-        <v>2.8961680486643799</v>
+        <v>2.9411680486643799</v>
       </c>
       <c r="L141">
         <v>1996</v>
@@ -3287,10 +3287,10 @@
         <v>6</v>
       </c>
       <c r="J142">
-        <v>1.2730812300000001</v>
+        <v>1.0930812299999999</v>
       </c>
       <c r="K142">
-        <v>2.8961680486643799</v>
+        <v>2.9411680486643799</v>
       </c>
       <c r="L142">
         <v>1996</v>
@@ -3301,10 +3301,10 @@
         <v>6</v>
       </c>
       <c r="J143">
-        <v>1.2730812300000001</v>
+        <v>1.0930812299999999</v>
       </c>
       <c r="K143">
-        <v>2.8961680486643799</v>
+        <v>2.9411680486643799</v>
       </c>
       <c r="L143">
         <v>1996</v>
@@ -3315,10 +3315,10 @@
         <v>6</v>
       </c>
       <c r="J144">
-        <v>1.2730812300000001</v>
+        <v>1.0930812299999999</v>
       </c>
       <c r="K144">
-        <v>2.8961680486643799</v>
+        <v>2.9411680486643799</v>
       </c>
       <c r="L144">
         <v>1996</v>
@@ -3329,10 +3329,10 @@
         <v>6</v>
       </c>
       <c r="J145">
-        <v>1.2730812300000001</v>
+        <v>1.0930812299999999</v>
       </c>
       <c r="K145">
-        <v>2.8961680486643799</v>
+        <v>2.9411680486643799</v>
       </c>
       <c r="L145">
         <v>1996</v>
@@ -3343,10 +3343,10 @@
         <v>6</v>
       </c>
       <c r="J146">
-        <v>1.2730812300000001</v>
+        <v>1.0930812299999999</v>
       </c>
       <c r="K146">
-        <v>2.8961680486643799</v>
+        <v>2.9411680486643799</v>
       </c>
       <c r="L146">
         <v>1996</v>
@@ -3357,10 +3357,10 @@
         <v>6</v>
       </c>
       <c r="J147">
-        <v>1.2730812300000001</v>
+        <v>1.0930812299999999</v>
       </c>
       <c r="K147">
-        <v>2.8961680486643799</v>
+        <v>2.9411680486643799</v>
       </c>
       <c r="L147">
         <v>1996</v>
@@ -3371,10 +3371,10 @@
         <v>6</v>
       </c>
       <c r="J148">
-        <v>1.2730812300000001</v>
+        <v>1.0930812299999999</v>
       </c>
       <c r="K148">
-        <v>2.8961680486643799</v>
+        <v>2.9411680486643799</v>
       </c>
       <c r="L148">
         <v>1996</v>
@@ -3385,10 +3385,10 @@
         <v>6</v>
       </c>
       <c r="J149">
-        <v>1.2730812300000001</v>
+        <v>1.0930812299999999</v>
       </c>
       <c r="K149">
-        <v>2.8961680486643799</v>
+        <v>2.9411680486643799</v>
       </c>
       <c r="L149">
         <v>1996</v>
@@ -3399,10 +3399,10 @@
         <v>6</v>
       </c>
       <c r="J150">
-        <v>1.2730812300000001</v>
+        <v>1.0930812299999999</v>
       </c>
       <c r="K150">
-        <v>2.8961680486643799</v>
+        <v>2.9411680486643799</v>
       </c>
       <c r="L150">
         <v>1996</v>
@@ -3413,10 +3413,10 @@
         <v>6</v>
       </c>
       <c r="J151">
-        <v>1.2730812300000001</v>
+        <v>1.0930812299999999</v>
       </c>
       <c r="K151">
-        <v>2.8961680486643799</v>
+        <v>2.9411680486643799</v>
       </c>
       <c r="L151">
         <v>1996</v>
@@ -3427,10 +3427,10 @@
         <v>6</v>
       </c>
       <c r="J152">
-        <v>1.2730812300000001</v>
+        <v>1.0930812299999999</v>
       </c>
       <c r="K152">
-        <v>2.8961680486643799</v>
+        <v>2.9411680486643799</v>
       </c>
       <c r="L152">
         <v>1996</v>
@@ -3441,10 +3441,10 @@
         <v>6</v>
       </c>
       <c r="J153">
-        <v>1.2730812300000001</v>
+        <v>1.0930812299999999</v>
       </c>
       <c r="K153">
-        <v>2.8961680486643799</v>
+        <v>2.9411680486643799</v>
       </c>
       <c r="L153">
         <v>1996</v>
@@ -3455,10 +3455,10 @@
         <v>6</v>
       </c>
       <c r="J154">
-        <v>1.2730812300000001</v>
+        <v>1.0930812299999999</v>
       </c>
       <c r="K154">
-        <v>2.8961680486643799</v>
+        <v>2.9411680486643799</v>
       </c>
       <c r="L154">
         <v>1996</v>
@@ -3469,10 +3469,10 @@
         <v>6</v>
       </c>
       <c r="J155">
-        <v>1.2730812300000001</v>
+        <v>1.0930812299999999</v>
       </c>
       <c r="K155">
-        <v>2.8961680486643799</v>
+        <v>2.9411680486643799</v>
       </c>
       <c r="L155">
         <v>1996</v>
@@ -3483,10 +3483,10 @@
         <v>6</v>
       </c>
       <c r="J156">
-        <v>1.2730812300000001</v>
+        <v>1.0930812299999999</v>
       </c>
       <c r="K156">
-        <v>2.8961680486643799</v>
+        <v>2.9411680486643799</v>
       </c>
       <c r="L156">
         <v>1996</v>
@@ -3497,10 +3497,10 @@
         <v>6</v>
       </c>
       <c r="J157">
-        <v>1.2730812300000001</v>
+        <v>1.0930812299999999</v>
       </c>
       <c r="K157">
-        <v>2.8961680486643799</v>
+        <v>2.9411680486643799</v>
       </c>
       <c r="L157">
         <v>1996</v>
@@ -3511,10 +3511,10 @@
         <v>6</v>
       </c>
       <c r="J158">
-        <v>1.2730812300000001</v>
+        <v>1.0930812299999999</v>
       </c>
       <c r="K158">
-        <v>2.8961680486643799</v>
+        <v>2.9411680486643799</v>
       </c>
       <c r="L158">
         <v>1996</v>
@@ -3525,10 +3525,10 @@
         <v>6</v>
       </c>
       <c r="J159">
-        <v>1.2730812300000001</v>
+        <v>1.0930812299999999</v>
       </c>
       <c r="K159">
-        <v>2.8961680486643799</v>
+        <v>2.9411680486643799</v>
       </c>
       <c r="L159">
         <v>1996</v>
@@ -3539,10 +3539,10 @@
         <v>6</v>
       </c>
       <c r="J160">
-        <v>1.2730812300000001</v>
+        <v>1.0930812299999999</v>
       </c>
       <c r="K160">
-        <v>2.8961680486643799</v>
+        <v>2.9411680486643799</v>
       </c>
       <c r="L160">
         <v>1996</v>
@@ -3553,10 +3553,10 @@
         <v>6</v>
       </c>
       <c r="J161">
-        <v>1.2730812300000001</v>
+        <v>1.0930812299999999</v>
       </c>
       <c r="K161">
-        <v>2.8961680486643799</v>
+        <v>2.9411680486643799</v>
       </c>
       <c r="L161">
         <v>1996</v>
@@ -3567,10 +3567,10 @@
         <v>6</v>
       </c>
       <c r="J162">
-        <v>1.2730812300000001</v>
+        <v>1.0930812299999999</v>
       </c>
       <c r="K162">
-        <v>2.8961680486643799</v>
+        <v>2.9411680486643799</v>
       </c>
       <c r="L162">
         <v>1996</v>
@@ -3581,10 +3581,10 @@
         <v>6</v>
       </c>
       <c r="J163">
-        <v>1.2730812300000001</v>
+        <v>1.0930812299999999</v>
       </c>
       <c r="K163">
-        <v>2.8961680486643799</v>
+        <v>2.9411680486643799</v>
       </c>
       <c r="L163">
         <v>1996</v>
@@ -3595,10 +3595,10 @@
         <v>6</v>
       </c>
       <c r="J164">
-        <v>1.187729</v>
+        <v>1.3177289999999999</v>
       </c>
       <c r="K164">
-        <v>3.0291472020547898</v>
+        <v>2.9966472020547901</v>
       </c>
       <c r="L164">
         <v>1999</v>
@@ -3609,10 +3609,10 @@
         <v>6</v>
       </c>
       <c r="J165">
-        <v>1.187729</v>
+        <v>1.3177289999999999</v>
       </c>
       <c r="K165">
-        <v>3.0291472020547898</v>
+        <v>2.9966472020547901</v>
       </c>
       <c r="L165">
         <v>1999</v>
@@ -3623,10 +3623,10 @@
         <v>6</v>
       </c>
       <c r="J166">
-        <v>1.187729</v>
+        <v>1.3177289999999999</v>
       </c>
       <c r="K166">
-        <v>3.0291472020547898</v>
+        <v>2.9966472020547901</v>
       </c>
       <c r="L166">
         <v>1999</v>
@@ -3637,10 +3637,10 @@
         <v>6</v>
       </c>
       <c r="J167">
-        <v>1.187729</v>
+        <v>1.3177289999999999</v>
       </c>
       <c r="K167">
-        <v>3.0291472020547898</v>
+        <v>2.9966472020547901</v>
       </c>
       <c r="L167">
         <v>1999</v>
@@ -3651,10 +3651,10 @@
         <v>6</v>
       </c>
       <c r="J168">
-        <v>1.187729</v>
+        <v>1.3177289999999999</v>
       </c>
       <c r="K168">
-        <v>3.0291472020547898</v>
+        <v>2.9966472020547901</v>
       </c>
       <c r="L168">
         <v>1999</v>
@@ -3665,10 +3665,10 @@
         <v>6</v>
       </c>
       <c r="J169">
-        <v>1.187729</v>
+        <v>1.3177289999999999</v>
       </c>
       <c r="K169">
-        <v>3.0291472020547898</v>
+        <v>2.9966472020547901</v>
       </c>
       <c r="L169">
         <v>1999</v>
@@ -3679,10 +3679,10 @@
         <v>6</v>
       </c>
       <c r="J170">
-        <v>1.187729</v>
+        <v>1.3177289999999999</v>
       </c>
       <c r="K170">
-        <v>3.0291472020547898</v>
+        <v>2.9966472020547901</v>
       </c>
       <c r="L170">
         <v>1999</v>
@@ -3693,10 +3693,10 @@
         <v>6</v>
       </c>
       <c r="J171">
-        <v>1.187729</v>
+        <v>1.3177289999999999</v>
       </c>
       <c r="K171">
-        <v>3.0291472020547898</v>
+        <v>2.9966472020547901</v>
       </c>
       <c r="L171">
         <v>1999</v>
@@ -3707,10 +3707,10 @@
         <v>6</v>
       </c>
       <c r="J172">
-        <v>1.187729</v>
+        <v>1.3177289999999999</v>
       </c>
       <c r="K172">
-        <v>3.0291472020547898</v>
+        <v>2.9966472020547901</v>
       </c>
       <c r="L172">
         <v>1999</v>
@@ -3721,10 +3721,10 @@
         <v>6</v>
       </c>
       <c r="J173">
-        <v>1.187729</v>
+        <v>1.3177289999999999</v>
       </c>
       <c r="K173">
-        <v>3.0291472020547898</v>
+        <v>2.9966472020547901</v>
       </c>
       <c r="L173">
         <v>1999</v>
@@ -3735,10 +3735,10 @@
         <v>6</v>
       </c>
       <c r="J174">
-        <v>1.187729</v>
+        <v>1.3177289999999999</v>
       </c>
       <c r="K174">
-        <v>3.0291472020547898</v>
+        <v>2.9966472020547901</v>
       </c>
       <c r="L174">
         <v>1999</v>
@@ -3749,10 +3749,10 @@
         <v>6</v>
       </c>
       <c r="J175">
-        <v>1.187729</v>
+        <v>1.3177289999999999</v>
       </c>
       <c r="K175">
-        <v>3.0291472020547898</v>
+        <v>2.9966472020547901</v>
       </c>
       <c r="L175">
         <v>1999</v>
@@ -3763,10 +3763,10 @@
         <v>6</v>
       </c>
       <c r="J176">
-        <v>1.187729</v>
+        <v>1.3177289999999999</v>
       </c>
       <c r="K176">
-        <v>3.0291472020547898</v>
+        <v>2.9966472020547901</v>
       </c>
       <c r="L176">
         <v>1999</v>
@@ -3777,10 +3777,10 @@
         <v>6</v>
       </c>
       <c r="J177">
-        <v>1.187729</v>
+        <v>1.3177289999999999</v>
       </c>
       <c r="K177">
-        <v>3.0291472020547898</v>
+        <v>2.9966472020547901</v>
       </c>
       <c r="L177">
         <v>1999</v>
@@ -3791,10 +3791,10 @@
         <v>6</v>
       </c>
       <c r="J178">
-        <v>1.187729</v>
+        <v>1.3177289999999999</v>
       </c>
       <c r="K178">
-        <v>3.0291472020547898</v>
+        <v>2.9966472020547901</v>
       </c>
       <c r="L178">
         <v>1999</v>
@@ -3805,10 +3805,10 @@
         <v>6</v>
       </c>
       <c r="J179">
-        <v>1.187729</v>
+        <v>1.3177289999999999</v>
       </c>
       <c r="K179">
-        <v>3.0291472020547898</v>
+        <v>2.9966472020547901</v>
       </c>
       <c r="L179">
         <v>1999</v>
@@ -3819,10 +3819,10 @@
         <v>6</v>
       </c>
       <c r="J180">
-        <v>1.187729</v>
+        <v>1.3177289999999999</v>
       </c>
       <c r="K180">
-        <v>3.0291472020547898</v>
+        <v>2.9966472020547901</v>
       </c>
       <c r="L180">
         <v>1999</v>
@@ -3833,10 +3833,10 @@
         <v>6</v>
       </c>
       <c r="J181">
-        <v>1.187729</v>
+        <v>1.3177289999999999</v>
       </c>
       <c r="K181">
-        <v>3.0291472020547898</v>
+        <v>2.9966472020547901</v>
       </c>
       <c r="L181">
         <v>1999</v>
@@ -3847,10 +3847,10 @@
         <v>6</v>
       </c>
       <c r="J182">
-        <v>1.187729</v>
+        <v>1.3177289999999999</v>
       </c>
       <c r="K182">
-        <v>3.0291472020547898</v>
+        <v>2.9966472020547901</v>
       </c>
       <c r="L182">
         <v>1999</v>
@@ -3861,10 +3861,10 @@
         <v>6</v>
       </c>
       <c r="J183">
-        <v>1.187729</v>
+        <v>1.3177289999999999</v>
       </c>
       <c r="K183">
-        <v>3.0291472020547898</v>
+        <v>2.9966472020547901</v>
       </c>
       <c r="L183">
         <v>1999</v>
@@ -3875,10 +3875,10 @@
         <v>6</v>
       </c>
       <c r="J184">
-        <v>1.187729</v>
+        <v>1.3177289999999999</v>
       </c>
       <c r="K184">
-        <v>3.0291472020547898</v>
+        <v>2.9966472020547901</v>
       </c>
       <c r="L184">
         <v>1999</v>
@@ -3889,10 +3889,10 @@
         <v>6</v>
       </c>
       <c r="J185">
-        <v>1.187729</v>
+        <v>1.3177289999999999</v>
       </c>
       <c r="K185">
-        <v>3.0291472020547898</v>
+        <v>2.9966472020547901</v>
       </c>
       <c r="L185">
         <v>1999</v>
@@ -3903,10 +3903,10 @@
         <v>6</v>
       </c>
       <c r="J186">
-        <v>1.187729</v>
+        <v>1.3177289999999999</v>
       </c>
       <c r="K186">
-        <v>3.0291472020547898</v>
+        <v>2.9966472020547901</v>
       </c>
       <c r="L186">
         <v>1999</v>
@@ -3917,10 +3917,10 @@
         <v>6</v>
       </c>
       <c r="J187">
-        <v>1.187729</v>
+        <v>1.3177289999999999</v>
       </c>
       <c r="K187">
-        <v>3.0291472020547898</v>
+        <v>2.9966472020547901</v>
       </c>
       <c r="L187">
         <v>1999</v>
@@ -3931,10 +3931,10 @@
         <v>6</v>
       </c>
       <c r="J188">
-        <v>1.187729</v>
+        <v>1.3177289999999999</v>
       </c>
       <c r="K188">
-        <v>3.0291472020547898</v>
+        <v>2.9966472020547901</v>
       </c>
       <c r="L188">
         <v>1999</v>
@@ -3945,10 +3945,10 @@
         <v>6</v>
       </c>
       <c r="J189">
-        <v>1.187729</v>
+        <v>1.3177289999999999</v>
       </c>
       <c r="K189">
-        <v>3.0291472020547898</v>
+        <v>2.9966472020547901</v>
       </c>
       <c r="L189">
         <v>1999</v>
@@ -3959,10 +3959,10 @@
         <v>6</v>
       </c>
       <c r="J190">
-        <v>1.187729</v>
+        <v>1.3177289999999999</v>
       </c>
       <c r="K190">
-        <v>3.0291472020547898</v>
+        <v>2.9966472020547901</v>
       </c>
       <c r="L190">
         <v>1999</v>
@@ -3973,10 +3973,10 @@
         <v>6</v>
       </c>
       <c r="J191">
-        <v>1.3741730974999999</v>
+        <v>1.1741730975</v>
       </c>
       <c r="K191">
-        <v>3.07582590370719</v>
+        <v>3.1258259037071898</v>
       </c>
       <c r="L191">
         <v>2002</v>
@@ -3987,10 +3987,10 @@
         <v>6</v>
       </c>
       <c r="J192">
-        <v>1.3741730974999999</v>
+        <v>1.1741730975</v>
       </c>
       <c r="K192">
-        <v>3.07582590370719</v>
+        <v>3.1258259037071898</v>
       </c>
       <c r="L192">
         <v>2002</v>
@@ -4001,10 +4001,10 @@
         <v>6</v>
       </c>
       <c r="J193">
-        <v>1.3741730974999999</v>
+        <v>1.1741730975</v>
       </c>
       <c r="K193">
-        <v>3.07582590370719</v>
+        <v>3.1258259037071898</v>
       </c>
       <c r="L193">
         <v>2002</v>
@@ -4015,10 +4015,10 @@
         <v>6</v>
       </c>
       <c r="J194">
-        <v>1.3741730974999999</v>
+        <v>1.1741730975</v>
       </c>
       <c r="K194">
-        <v>3.07582590370719</v>
+        <v>3.1258259037071898</v>
       </c>
       <c r="L194">
         <v>2002</v>
@@ -4029,10 +4029,10 @@
         <v>6</v>
       </c>
       <c r="J195">
-        <v>1.3741730974999999</v>
+        <v>1.1741730975</v>
       </c>
       <c r="K195">
-        <v>3.07582590370719</v>
+        <v>3.1258259037071898</v>
       </c>
       <c r="L195">
         <v>2002</v>
@@ -4043,10 +4043,10 @@
         <v>6</v>
       </c>
       <c r="J196">
-        <v>1.3741730974999999</v>
+        <v>1.1741730975</v>
       </c>
       <c r="K196">
-        <v>3.07582590370719</v>
+        <v>3.1258259037071898</v>
       </c>
       <c r="L196">
         <v>2002</v>
@@ -4057,10 +4057,10 @@
         <v>6</v>
       </c>
       <c r="J197">
-        <v>1.3741730974999999</v>
+        <v>1.1741730975</v>
       </c>
       <c r="K197">
-        <v>3.07582590370719</v>
+        <v>3.1258259037071898</v>
       </c>
       <c r="L197">
         <v>2002</v>
@@ -4071,10 +4071,10 @@
         <v>6</v>
       </c>
       <c r="J198">
-        <v>1.3741730974999999</v>
+        <v>1.1741730975</v>
       </c>
       <c r="K198">
-        <v>3.07582590370719</v>
+        <v>3.1258259037071898</v>
       </c>
       <c r="L198">
         <v>2002</v>
@@ -4085,10 +4085,10 @@
         <v>6</v>
       </c>
       <c r="J199">
-        <v>1.3741730974999999</v>
+        <v>1.1741730975</v>
       </c>
       <c r="K199">
-        <v>3.07582590370719</v>
+        <v>3.1258259037071898</v>
       </c>
       <c r="L199">
         <v>2002</v>
@@ -4099,10 +4099,10 @@
         <v>6</v>
       </c>
       <c r="J200">
-        <v>1.3741730974999999</v>
+        <v>1.1741730975</v>
       </c>
       <c r="K200">
-        <v>3.07582590370719</v>
+        <v>3.1258259037071898</v>
       </c>
       <c r="L200">
         <v>2002</v>
@@ -4113,10 +4113,10 @@
         <v>6</v>
       </c>
       <c r="J201">
-        <v>1.3741730974999999</v>
+        <v>1.1741730975</v>
       </c>
       <c r="K201">
-        <v>3.07582590370719</v>
+        <v>3.1258259037071898</v>
       </c>
       <c r="L201">
         <v>2002</v>
@@ -4127,10 +4127,10 @@
         <v>6</v>
       </c>
       <c r="J202">
-        <v>1.3741730974999999</v>
+        <v>1.1741730975</v>
       </c>
       <c r="K202">
-        <v>3.07582590370719</v>
+        <v>3.1258259037071898</v>
       </c>
       <c r="L202">
         <v>2002</v>
@@ -4141,10 +4141,10 @@
         <v>6</v>
       </c>
       <c r="J203">
-        <v>1.3741730974999999</v>
+        <v>1.1741730975</v>
       </c>
       <c r="K203">
-        <v>3.07582590370719</v>
+        <v>3.1258259037071898</v>
       </c>
       <c r="L203">
         <v>2002</v>
@@ -4155,10 +4155,10 @@
         <v>6</v>
       </c>
       <c r="J204">
-        <v>1.3741730974999999</v>
+        <v>1.1741730975</v>
       </c>
       <c r="K204">
-        <v>3.07582590370719</v>
+        <v>3.1258259037071898</v>
       </c>
       <c r="L204">
         <v>2002</v>
@@ -4169,10 +4169,10 @@
         <v>6</v>
       </c>
       <c r="J205">
-        <v>1.3741730974999999</v>
+        <v>1.1741730975</v>
       </c>
       <c r="K205">
-        <v>3.07582590370719</v>
+        <v>3.1258259037071898</v>
       </c>
       <c r="L205">
         <v>2002</v>
@@ -4183,10 +4183,10 @@
         <v>6</v>
       </c>
       <c r="J206">
-        <v>1.3741730974999999</v>
+        <v>1.1741730975</v>
       </c>
       <c r="K206">
-        <v>3.07582590370719</v>
+        <v>3.1258259037071898</v>
       </c>
       <c r="L206">
         <v>2002</v>
@@ -4197,10 +4197,10 @@
         <v>6</v>
       </c>
       <c r="J207">
-        <v>1.3741730974999999</v>
+        <v>1.1741730975</v>
       </c>
       <c r="K207">
-        <v>3.07582590370719</v>
+        <v>3.1258259037071898</v>
       </c>
       <c r="L207">
         <v>2002</v>
@@ -4211,10 +4211,10 @@
         <v>6</v>
       </c>
       <c r="J208">
-        <v>1.3741730974999999</v>
+        <v>1.1741730975</v>
       </c>
       <c r="K208">
-        <v>3.07582590370719</v>
+        <v>3.1258259037071898</v>
       </c>
       <c r="L208">
         <v>2002</v>
@@ -4225,10 +4225,10 @@
         <v>6</v>
       </c>
       <c r="J209">
-        <v>1.3741730974999999</v>
+        <v>1.1741730975</v>
       </c>
       <c r="K209">
-        <v>3.07582590370719</v>
+        <v>3.1258259037071898</v>
       </c>
       <c r="L209">
         <v>2002</v>
@@ -4239,10 +4239,10 @@
         <v>6</v>
       </c>
       <c r="J210">
-        <v>1.3741730974999999</v>
+        <v>1.1741730975</v>
       </c>
       <c r="K210">
-        <v>3.07582590370719</v>
+        <v>3.1258259037071898</v>
       </c>
       <c r="L210">
         <v>2002</v>
@@ -4253,10 +4253,10 @@
         <v>6</v>
       </c>
       <c r="J211">
-        <v>1.3741730974999999</v>
+        <v>1.1741730975</v>
       </c>
       <c r="K211">
-        <v>3.07582590370719</v>
+        <v>3.1258259037071898</v>
       </c>
       <c r="L211">
         <v>2002</v>
@@ -4267,10 +4267,10 @@
         <v>6</v>
       </c>
       <c r="J212">
-        <v>1.3741730974999999</v>
+        <v>1.1741730975</v>
       </c>
       <c r="K212">
-        <v>3.07582590370719</v>
+        <v>3.1258259037071898</v>
       </c>
       <c r="L212">
         <v>2002</v>
@@ -4281,10 +4281,10 @@
         <v>6</v>
       </c>
       <c r="J213">
-        <v>1.3741730974999999</v>
+        <v>1.1741730975</v>
       </c>
       <c r="K213">
-        <v>3.07582590370719</v>
+        <v>3.1258259037071898</v>
       </c>
       <c r="L213">
         <v>2002</v>
@@ -4295,10 +4295,10 @@
         <v>6</v>
       </c>
       <c r="J214">
-        <v>1.3741730974999999</v>
+        <v>1.1741730975</v>
       </c>
       <c r="K214">
-        <v>3.07582590370719</v>
+        <v>3.1258259037071898</v>
       </c>
       <c r="L214">
         <v>2002</v>
@@ -4309,10 +4309,10 @@
         <v>6</v>
       </c>
       <c r="J215">
-        <v>1.3741730974999999</v>
+        <v>1.1741730975</v>
       </c>
       <c r="K215">
-        <v>3.07582590370719</v>
+        <v>3.1258259037071898</v>
       </c>
       <c r="L215">
         <v>2002</v>
@@ -4323,10 +4323,10 @@
         <v>6</v>
       </c>
       <c r="J216">
-        <v>1.3741730974999999</v>
+        <v>1.1741730975</v>
       </c>
       <c r="K216">
-        <v>3.07582590370719</v>
+        <v>3.1258259037071898</v>
       </c>
       <c r="L216">
         <v>2002</v>
@@ -4337,10 +4337,10 @@
         <v>6</v>
       </c>
       <c r="J217">
-        <v>1.3741730974999999</v>
+        <v>1.1741730975</v>
       </c>
       <c r="K217">
-        <v>3.07582590370719</v>
+        <v>3.1258259037071898</v>
       </c>
       <c r="L217">
         <v>2002</v>
@@ -4351,10 +4351,10 @@
         <v>6</v>
       </c>
       <c r="J218">
-        <v>1.5952004200000001</v>
+        <v>1.1852004199999999</v>
       </c>
       <c r="K218">
-        <v>3.2108270182876701</v>
+        <v>3.3133270182876702</v>
       </c>
       <c r="L218">
         <v>2005</v>
@@ -4365,10 +4365,10 @@
         <v>6</v>
       </c>
       <c r="J219">
-        <v>1.5952004200000001</v>
+        <v>1.1852004199999999</v>
       </c>
       <c r="K219">
-        <v>3.2108270182876701</v>
+        <v>3.3133270182876702</v>
       </c>
       <c r="L219">
         <v>2005</v>
@@ -4379,10 +4379,10 @@
         <v>6</v>
       </c>
       <c r="J220">
-        <v>1.5952004200000001</v>
+        <v>1.1852004199999999</v>
       </c>
       <c r="K220">
-        <v>3.2108270182876701</v>
+        <v>3.3133270182876702</v>
       </c>
       <c r="L220">
         <v>2005</v>
@@ -4393,10 +4393,10 @@
         <v>6</v>
       </c>
       <c r="J221">
-        <v>1.5952004200000001</v>
+        <v>1.1852004199999999</v>
       </c>
       <c r="K221">
-        <v>3.2108270182876701</v>
+        <v>3.3133270182876702</v>
       </c>
       <c r="L221">
         <v>2005</v>
@@ -4407,10 +4407,10 @@
         <v>6</v>
       </c>
       <c r="J222">
-        <v>1.5952004200000001</v>
+        <v>1.1852004199999999</v>
       </c>
       <c r="K222">
-        <v>3.2108270182876701</v>
+        <v>3.3133270182876702</v>
       </c>
       <c r="L222">
         <v>2005</v>
@@ -4421,10 +4421,10 @@
         <v>6</v>
       </c>
       <c r="J223">
-        <v>1.5952004200000001</v>
+        <v>1.1852004199999999</v>
       </c>
       <c r="K223">
-        <v>3.2108270182876701</v>
+        <v>3.3133270182876702</v>
       </c>
       <c r="L223">
         <v>2005</v>
@@ -4435,10 +4435,10 @@
         <v>6</v>
       </c>
       <c r="J224">
-        <v>1.5952004200000001</v>
+        <v>1.1852004199999999</v>
       </c>
       <c r="K224">
-        <v>3.2108270182876701</v>
+        <v>3.3133270182876702</v>
       </c>
       <c r="L224">
         <v>2005</v>
@@ -4449,10 +4449,10 @@
         <v>6</v>
       </c>
       <c r="J225">
-        <v>1.5952004200000001</v>
+        <v>1.1852004199999999</v>
       </c>
       <c r="K225">
-        <v>3.2108270182876701</v>
+        <v>3.3133270182876702</v>
       </c>
       <c r="L225">
         <v>2005</v>
@@ -4463,10 +4463,10 @@
         <v>6</v>
       </c>
       <c r="J226">
-        <v>1.5952004200000001</v>
+        <v>1.1852004199999999</v>
       </c>
       <c r="K226">
-        <v>3.2108270182876701</v>
+        <v>3.3133270182876702</v>
       </c>
       <c r="L226">
         <v>2005</v>
@@ -4477,10 +4477,10 @@
         <v>6</v>
       </c>
       <c r="J227">
-        <v>1.5952004200000001</v>
+        <v>1.1852004199999999</v>
       </c>
       <c r="K227">
-        <v>3.2108270182876701</v>
+        <v>3.3133270182876702</v>
       </c>
       <c r="L227">
         <v>2005</v>
@@ -4491,10 +4491,10 @@
         <v>6</v>
       </c>
       <c r="J228">
-        <v>1.5952004200000001</v>
+        <v>1.1852004199999999</v>
       </c>
       <c r="K228">
-        <v>3.2108270182876701</v>
+        <v>3.3133270182876702</v>
       </c>
       <c r="L228">
         <v>2005</v>
@@ -4505,10 +4505,10 @@
         <v>6</v>
       </c>
       <c r="J229">
-        <v>1.5952004200000001</v>
+        <v>1.1852004199999999</v>
       </c>
       <c r="K229">
-        <v>3.2108270182876701</v>
+        <v>3.3133270182876702</v>
       </c>
       <c r="L229">
         <v>2005</v>
@@ -4519,10 +4519,10 @@
         <v>6</v>
       </c>
       <c r="J230">
-        <v>1.5952004200000001</v>
+        <v>1.1852004199999999</v>
       </c>
       <c r="K230">
-        <v>3.2108270182876701</v>
+        <v>3.3133270182876702</v>
       </c>
       <c r="L230">
         <v>2005</v>
@@ -4533,10 +4533,10 @@
         <v>6</v>
       </c>
       <c r="J231">
-        <v>1.5952004200000001</v>
+        <v>1.1852004199999999</v>
       </c>
       <c r="K231">
-        <v>3.2108270182876701</v>
+        <v>3.3133270182876702</v>
       </c>
       <c r="L231">
         <v>2005</v>
@@ -4547,10 +4547,10 @@
         <v>6</v>
       </c>
       <c r="J232">
-        <v>1.5952004200000001</v>
+        <v>1.1852004199999999</v>
       </c>
       <c r="K232">
-        <v>3.2108270182876701</v>
+        <v>3.3133270182876702</v>
       </c>
       <c r="L232">
         <v>2005</v>
@@ -4561,10 +4561,10 @@
         <v>6</v>
       </c>
       <c r="J233">
-        <v>1.5952004200000001</v>
+        <v>1.1852004199999999</v>
       </c>
       <c r="K233">
-        <v>3.2108270182876701</v>
+        <v>3.3133270182876702</v>
       </c>
       <c r="L233">
         <v>2005</v>
@@ -4575,10 +4575,10 @@
         <v>6</v>
       </c>
       <c r="J234">
-        <v>1.5952004200000001</v>
+        <v>1.1852004199999999</v>
       </c>
       <c r="K234">
-        <v>3.2108270182876701</v>
+        <v>3.3133270182876702</v>
       </c>
       <c r="L234">
         <v>2005</v>
@@ -4589,10 +4589,10 @@
         <v>6</v>
       </c>
       <c r="J235">
-        <v>1.5952004200000001</v>
+        <v>1.1852004199999999</v>
       </c>
       <c r="K235">
-        <v>3.2108270182876701</v>
+        <v>3.3133270182876702</v>
       </c>
       <c r="L235">
         <v>2005</v>
@@ -4603,10 +4603,10 @@
         <v>6</v>
       </c>
       <c r="J236">
-        <v>1.5952004200000001</v>
+        <v>1.1852004199999999</v>
       </c>
       <c r="K236">
-        <v>3.2108270182876701</v>
+        <v>3.3133270182876702</v>
       </c>
       <c r="L236">
         <v>2005</v>
@@ -4617,10 +4617,10 @@
         <v>6</v>
       </c>
       <c r="J237">
-        <v>1.5952004200000001</v>
+        <v>1.1852004199999999</v>
       </c>
       <c r="K237">
-        <v>3.2108270182876701</v>
+        <v>3.3133270182876702</v>
       </c>
       <c r="L237">
         <v>2005</v>
@@ -4631,10 +4631,10 @@
         <v>6</v>
       </c>
       <c r="J238">
-        <v>1.5952004200000001</v>
+        <v>1.1852004199999999</v>
       </c>
       <c r="K238">
-        <v>3.2108270182876701</v>
+        <v>3.3133270182876702</v>
       </c>
       <c r="L238">
         <v>2005</v>
@@ -4645,10 +4645,10 @@
         <v>6</v>
       </c>
       <c r="J239">
-        <v>1.5952004200000001</v>
+        <v>1.1852004199999999</v>
       </c>
       <c r="K239">
-        <v>3.2108270182876701</v>
+        <v>3.3133270182876702</v>
       </c>
       <c r="L239">
         <v>2005</v>
@@ -4659,10 +4659,10 @@
         <v>6</v>
       </c>
       <c r="J240">
-        <v>1.5952004200000001</v>
+        <v>1.1852004199999999</v>
       </c>
       <c r="K240">
-        <v>3.2108270182876701</v>
+        <v>3.3133270182876702</v>
       </c>
       <c r="L240">
         <v>2005</v>
@@ -4673,10 +4673,10 @@
         <v>6</v>
       </c>
       <c r="J241">
-        <v>1.5952004200000001</v>
+        <v>1.1852004199999999</v>
       </c>
       <c r="K241">
-        <v>3.2108270182876701</v>
+        <v>3.3133270182876702</v>
       </c>
       <c r="L241">
         <v>2005</v>
@@ -4687,10 +4687,10 @@
         <v>6</v>
       </c>
       <c r="J242">
-        <v>1.5952004200000001</v>
+        <v>1.1852004199999999</v>
       </c>
       <c r="K242">
-        <v>3.2108270182876701</v>
+        <v>3.3133270182876702</v>
       </c>
       <c r="L242">
         <v>2005</v>
@@ -4701,10 +4701,10 @@
         <v>6</v>
       </c>
       <c r="J243">
-        <v>1.5952004200000001</v>
+        <v>1.1852004199999999</v>
       </c>
       <c r="K243">
-        <v>3.2108270182876701</v>
+        <v>3.3133270182876702</v>
       </c>
       <c r="L243">
         <v>2005</v>
@@ -4715,10 +4715,10 @@
         <v>6</v>
       </c>
       <c r="J244">
-        <v>1.5952004200000001</v>
+        <v>1.1852004199999999</v>
       </c>
       <c r="K244">
-        <v>3.2108270182876701</v>
+        <v>3.3133270182876702</v>
       </c>
       <c r="L244">
         <v>2005</v>
@@ -4729,10 +4729,10 @@
         <v>6</v>
       </c>
       <c r="J245">
-        <v>1.602770864</v>
+        <v>1.4427708640000001</v>
       </c>
       <c r="K245">
-        <v>3.4380994757808199</v>
+        <v>3.4780994757808199</v>
       </c>
       <c r="L245">
         <v>2008</v>
@@ -4743,10 +4743,10 @@
         <v>6</v>
       </c>
       <c r="J246">
-        <v>1.602770864</v>
+        <v>1.4427708640000001</v>
       </c>
       <c r="K246">
-        <v>3.4380994757808199</v>
+        <v>3.4780994757808199</v>
       </c>
       <c r="L246">
         <v>2008</v>
@@ -4757,10 +4757,10 @@
         <v>6</v>
       </c>
       <c r="J247">
-        <v>1.602770864</v>
+        <v>1.4427708640000001</v>
       </c>
       <c r="K247">
-        <v>3.4380994757808199</v>
+        <v>3.4780994757808199</v>
       </c>
       <c r="L247">
         <v>2008</v>
@@ -4771,10 +4771,10 @@
         <v>6</v>
       </c>
       <c r="J248">
-        <v>1.602770864</v>
+        <v>1.4427708640000001</v>
       </c>
       <c r="K248">
-        <v>3.4380994757808199</v>
+        <v>3.4780994757808199</v>
       </c>
       <c r="L248">
         <v>2008</v>
@@ -4785,10 +4785,10 @@
         <v>6</v>
       </c>
       <c r="J249">
-        <v>1.602770864</v>
+        <v>1.4427708640000001</v>
       </c>
       <c r="K249">
-        <v>3.4380994757808199</v>
+        <v>3.4780994757808199</v>
       </c>
       <c r="L249">
         <v>2008</v>
@@ -4799,10 +4799,10 @@
         <v>6</v>
       </c>
       <c r="J250">
-        <v>1.602770864</v>
+        <v>1.4427708640000001</v>
       </c>
       <c r="K250">
-        <v>3.4380994757808199</v>
+        <v>3.4780994757808199</v>
       </c>
       <c r="L250">
         <v>2008</v>
@@ -4813,10 +4813,10 @@
         <v>6</v>
       </c>
       <c r="J251">
-        <v>1.602770864</v>
+        <v>1.4427708640000001</v>
       </c>
       <c r="K251">
-        <v>3.4380994757808199</v>
+        <v>3.4780994757808199</v>
       </c>
       <c r="L251">
         <v>2008</v>
@@ -4827,10 +4827,10 @@
         <v>6</v>
       </c>
       <c r="J252">
-        <v>1.602770864</v>
+        <v>1.4427708640000001</v>
       </c>
       <c r="K252">
-        <v>3.4380994757808199</v>
+        <v>3.4780994757808199</v>
       </c>
       <c r="L252">
         <v>2008</v>
@@ -4841,10 +4841,10 @@
         <v>6</v>
       </c>
       <c r="J253">
-        <v>1.602770864</v>
+        <v>1.4427708640000001</v>
       </c>
       <c r="K253">
-        <v>3.4380994757808199</v>
+        <v>3.4780994757808199</v>
       </c>
       <c r="L253">
         <v>2008</v>
@@ -4855,10 +4855,10 @@
         <v>6</v>
       </c>
       <c r="J254">
-        <v>1.602770864</v>
+        <v>1.4427708640000001</v>
       </c>
       <c r="K254">
-        <v>3.4380994757808199</v>
+        <v>3.4780994757808199</v>
       </c>
       <c r="L254">
         <v>2008</v>
@@ -4869,10 +4869,10 @@
         <v>6</v>
       </c>
       <c r="J255">
-        <v>1.602770864</v>
+        <v>1.4427708640000001</v>
       </c>
       <c r="K255">
-        <v>3.4380994757808199</v>
+        <v>3.4780994757808199</v>
       </c>
       <c r="L255">
         <v>2008</v>
@@ -4883,10 +4883,10 @@
         <v>6</v>
       </c>
       <c r="J256">
-        <v>1.602770864</v>
+        <v>1.4427708640000001</v>
       </c>
       <c r="K256">
-        <v>3.4380994757808199</v>
+        <v>3.4780994757808199</v>
       </c>
       <c r="L256">
         <v>2008</v>
@@ -4897,10 +4897,10 @@
         <v>6</v>
       </c>
       <c r="J257">
-        <v>1.602770864</v>
+        <v>1.4427708640000001</v>
       </c>
       <c r="K257">
-        <v>3.4380994757808199</v>
+        <v>3.4780994757808199</v>
       </c>
       <c r="L257">
         <v>2008</v>
@@ -4911,10 +4911,10 @@
         <v>6</v>
       </c>
       <c r="J258">
-        <v>1.602770864</v>
+        <v>1.4427708640000001</v>
       </c>
       <c r="K258">
-        <v>3.4380994757808199</v>
+        <v>3.4780994757808199</v>
       </c>
       <c r="L258">
         <v>2008</v>
@@ -4925,10 +4925,10 @@
         <v>6</v>
       </c>
       <c r="J259">
-        <v>1.602770864</v>
+        <v>1.4427708640000001</v>
       </c>
       <c r="K259">
-        <v>3.4380994757808199</v>
+        <v>3.4780994757808199</v>
       </c>
       <c r="L259">
         <v>2008</v>
@@ -4939,10 +4939,10 @@
         <v>6</v>
       </c>
       <c r="J260">
-        <v>1.602770864</v>
+        <v>1.4427708640000001</v>
       </c>
       <c r="K260">
-        <v>3.4380994757808199</v>
+        <v>3.4780994757808199</v>
       </c>
       <c r="L260">
         <v>2008</v>
@@ -4953,10 +4953,10 @@
         <v>6</v>
       </c>
       <c r="J261">
-        <v>1.602770864</v>
+        <v>1.4427708640000001</v>
       </c>
       <c r="K261">
-        <v>3.4380994757808199</v>
+        <v>3.4780994757808199</v>
       </c>
       <c r="L261">
         <v>2008</v>
@@ -4967,10 +4967,10 @@
         <v>6</v>
       </c>
       <c r="J262">
-        <v>1.602770864</v>
+        <v>1.4427708640000001</v>
       </c>
       <c r="K262">
-        <v>3.4380994757808199</v>
+        <v>3.4780994757808199</v>
       </c>
       <c r="L262">
         <v>2008</v>
@@ -4981,10 +4981,10 @@
         <v>6</v>
       </c>
       <c r="J263">
-        <v>1.602770864</v>
+        <v>1.4427708640000001</v>
       </c>
       <c r="K263">
-        <v>3.4380994757808199</v>
+        <v>3.4780994757808199</v>
       </c>
       <c r="L263">
         <v>2008</v>
@@ -4995,10 +4995,10 @@
         <v>6</v>
       </c>
       <c r="J264">
-        <v>1.602770864</v>
+        <v>1.4427708640000001</v>
       </c>
       <c r="K264">
-        <v>3.4380994757808199</v>
+        <v>3.4780994757808199</v>
       </c>
       <c r="L264">
         <v>2008</v>
@@ -5009,10 +5009,10 @@
         <v>6</v>
       </c>
       <c r="J265">
-        <v>1.602770864</v>
+        <v>1.4427708640000001</v>
       </c>
       <c r="K265">
-        <v>3.4380994757808199</v>
+        <v>3.4780994757808199</v>
       </c>
       <c r="L265">
         <v>2008</v>
@@ -5023,10 +5023,10 @@
         <v>6</v>
       </c>
       <c r="J266">
-        <v>1.602770864</v>
+        <v>1.4427708640000001</v>
       </c>
       <c r="K266">
-        <v>3.4380994757808199</v>
+        <v>3.4780994757808199</v>
       </c>
       <c r="L266">
         <v>2008</v>
@@ -5037,10 +5037,10 @@
         <v>6</v>
       </c>
       <c r="J267">
-        <v>1.602770864</v>
+        <v>1.4427708640000001</v>
       </c>
       <c r="K267">
-        <v>3.4380994757808199</v>
+        <v>3.4780994757808199</v>
       </c>
       <c r="L267">
         <v>2008</v>
@@ -5051,10 +5051,10 @@
         <v>6</v>
       </c>
       <c r="J268">
-        <v>1.602770864</v>
+        <v>1.4427708640000001</v>
       </c>
       <c r="K268">
-        <v>3.4380994757808199</v>
+        <v>3.4780994757808199</v>
       </c>
       <c r="L268">
         <v>2008</v>
@@ -5065,10 +5065,10 @@
         <v>6</v>
       </c>
       <c r="J269">
-        <v>1.602770864</v>
+        <v>1.4427708640000001</v>
       </c>
       <c r="K269">
-        <v>3.4380994757808199</v>
+        <v>3.4780994757808199</v>
       </c>
       <c r="L269">
         <v>2008</v>
@@ -5079,10 +5079,10 @@
         <v>6</v>
       </c>
       <c r="J270">
-        <v>1.602770864</v>
+        <v>1.4427708640000001</v>
       </c>
       <c r="K270">
-        <v>3.4380994757808199</v>
+        <v>3.4780994757808199</v>
       </c>
       <c r="L270">
         <v>2008</v>
@@ -5093,10 +5093,10 @@
         <v>6</v>
       </c>
       <c r="J271">
-        <v>1.602770864</v>
+        <v>1.4427708640000001</v>
       </c>
       <c r="K271">
-        <v>3.4380994757808199</v>
+        <v>3.4780994757808199</v>
       </c>
       <c r="L271">
         <v>2008</v>
@@ -5107,10 +5107,10 @@
         <v>6</v>
       </c>
       <c r="J272">
-        <v>1.8106021845</v>
+        <v>1.3606021845</v>
       </c>
       <c r="K272">
-        <v>3.67908096072432</v>
+        <v>3.7915809607243101</v>
       </c>
       <c r="L272">
         <v>2010</v>
@@ -5121,10 +5121,10 @@
         <v>6</v>
       </c>
       <c r="J273">
-        <v>1.8106021845</v>
+        <v>1.3606021845</v>
       </c>
       <c r="K273">
-        <v>3.67908096072432</v>
+        <v>3.7915809607243101</v>
       </c>
       <c r="L273">
         <v>2010</v>
@@ -5135,10 +5135,10 @@
         <v>6</v>
       </c>
       <c r="J274">
-        <v>1.8106021845</v>
+        <v>1.3606021845</v>
       </c>
       <c r="K274">
-        <v>3.67908096072432</v>
+        <v>3.7915809607243101</v>
       </c>
       <c r="L274">
         <v>2010</v>
@@ -5149,10 +5149,10 @@
         <v>6</v>
       </c>
       <c r="J275">
-        <v>1.8106021845</v>
+        <v>1.3606021845</v>
       </c>
       <c r="K275">
-        <v>3.67908096072432</v>
+        <v>3.7915809607243101</v>
       </c>
       <c r="L275">
         <v>2010</v>
@@ -5163,10 +5163,10 @@
         <v>6</v>
       </c>
       <c r="J276">
-        <v>1.8106021845</v>
+        <v>1.3606021845</v>
       </c>
       <c r="K276">
-        <v>3.67908096072432</v>
+        <v>3.7915809607243101</v>
       </c>
       <c r="L276">
         <v>2010</v>
@@ -5177,10 +5177,10 @@
         <v>6</v>
       </c>
       <c r="J277">
-        <v>1.8106021845</v>
+        <v>1.3606021845</v>
       </c>
       <c r="K277">
-        <v>3.67908096072432</v>
+        <v>3.7915809607243101</v>
       </c>
       <c r="L277">
         <v>2010</v>
@@ -5191,10 +5191,10 @@
         <v>6</v>
       </c>
       <c r="J278">
-        <v>1.8106021845</v>
+        <v>1.3606021845</v>
       </c>
       <c r="K278">
-        <v>3.67908096072432</v>
+        <v>3.7915809607243101</v>
       </c>
       <c r="L278">
         <v>2010</v>
@@ -5205,10 +5205,10 @@
         <v>6</v>
       </c>
       <c r="J279">
-        <v>1.8106021845</v>
+        <v>1.3606021845</v>
       </c>
       <c r="K279">
-        <v>3.67908096072432</v>
+        <v>3.7915809607243101</v>
       </c>
       <c r="L279">
         <v>2010</v>
@@ -5219,10 +5219,10 @@
         <v>6</v>
       </c>
       <c r="J280">
-        <v>1.8106021845</v>
+        <v>1.3606021845</v>
       </c>
       <c r="K280">
-        <v>3.67908096072432</v>
+        <v>3.7915809607243101</v>
       </c>
       <c r="L280">
         <v>2010</v>
@@ -5233,10 +5233,10 @@
         <v>6</v>
       </c>
       <c r="J281">
-        <v>1.8106021845</v>
+        <v>1.3606021845</v>
       </c>
       <c r="K281">
-        <v>3.67908096072432</v>
+        <v>3.7915809607243101</v>
       </c>
       <c r="L281">
         <v>2010</v>
@@ -5247,10 +5247,10 @@
         <v>6</v>
       </c>
       <c r="J282">
-        <v>1.8106021845</v>
+        <v>1.3606021845</v>
       </c>
       <c r="K282">
-        <v>3.67908096072432</v>
+        <v>3.7915809607243101</v>
       </c>
       <c r="L282">
         <v>2010</v>
@@ -5261,10 +5261,10 @@
         <v>6</v>
       </c>
       <c r="J283">
-        <v>1.8106021845</v>
+        <v>1.3606021845</v>
       </c>
       <c r="K283">
-        <v>3.67908096072432</v>
+        <v>3.7915809607243101</v>
       </c>
       <c r="L283">
         <v>2010</v>
@@ -5275,10 +5275,10 @@
         <v>6</v>
       </c>
       <c r="J284">
-        <v>1.8106021845</v>
+        <v>1.3606021845</v>
       </c>
       <c r="K284">
-        <v>3.67908096072432</v>
+        <v>3.7915809607243101</v>
       </c>
       <c r="L284">
         <v>2010</v>
@@ -5289,10 +5289,10 @@
         <v>6</v>
       </c>
       <c r="J285">
-        <v>1.8106021845</v>
+        <v>1.3606021845</v>
       </c>
       <c r="K285">
-        <v>3.67908096072432</v>
+        <v>3.7915809607243101</v>
       </c>
       <c r="L285">
         <v>2010</v>
@@ -5303,10 +5303,10 @@
         <v>6</v>
       </c>
       <c r="J286">
-        <v>1.8106021845</v>
+        <v>1.3606021845</v>
       </c>
       <c r="K286">
-        <v>3.67908096072432</v>
+        <v>3.7915809607243101</v>
       </c>
       <c r="L286">
         <v>2010</v>
@@ -5317,10 +5317,10 @@
         <v>6</v>
       </c>
       <c r="J287">
-        <v>1.8106021845</v>
+        <v>1.3606021845</v>
       </c>
       <c r="K287">
-        <v>3.67908096072432</v>
+        <v>3.7915809607243101</v>
       </c>
       <c r="L287">
         <v>2010</v>
@@ -5331,10 +5331,10 @@
         <v>6</v>
       </c>
       <c r="J288">
-        <v>1.8106021845</v>
+        <v>1.3606021845</v>
       </c>
       <c r="K288">
-        <v>3.67908096072432</v>
+        <v>3.7915809607243101</v>
       </c>
       <c r="L288">
         <v>2010</v>
@@ -5345,10 +5345,10 @@
         <v>6</v>
       </c>
       <c r="J289">
-        <v>1.8106021845</v>
+        <v>1.3606021845</v>
       </c>
       <c r="K289">
-        <v>3.67908096072432</v>
+        <v>3.7915809607243101</v>
       </c>
       <c r="L289">
         <v>2010</v>
@@ -5359,10 +5359,10 @@
         <v>6</v>
       </c>
       <c r="J290">
-        <v>1.8106021845</v>
+        <v>1.3606021845</v>
       </c>
       <c r="K290">
-        <v>3.67908096072432</v>
+        <v>3.7915809607243101</v>
       </c>
       <c r="L290">
         <v>2010</v>
@@ -5373,10 +5373,10 @@
         <v>6</v>
       </c>
       <c r="J291">
-        <v>1.8106021845</v>
+        <v>1.3606021845</v>
       </c>
       <c r="K291">
-        <v>3.67908096072432</v>
+        <v>3.7915809607243101</v>
       </c>
       <c r="L291">
         <v>2010</v>
@@ -5387,10 +5387,10 @@
         <v>6</v>
       </c>
       <c r="J292">
-        <v>1.8106021845</v>
+        <v>1.3606021845</v>
       </c>
       <c r="K292">
-        <v>3.67908096072432</v>
+        <v>3.7915809607243101</v>
       </c>
       <c r="L292">
         <v>2010</v>
@@ -5401,10 +5401,10 @@
         <v>6</v>
       </c>
       <c r="J293">
-        <v>1.8106021845</v>
+        <v>1.3606021845</v>
       </c>
       <c r="K293">
-        <v>3.67908096072432</v>
+        <v>3.7915809607243101</v>
       </c>
       <c r="L293">
         <v>2010</v>
@@ -5415,10 +5415,10 @@
         <v>6</v>
       </c>
       <c r="J294">
-        <v>1.8106021845</v>
+        <v>1.3606021845</v>
       </c>
       <c r="K294">
-        <v>3.67908096072432</v>
+        <v>3.7915809607243101</v>
       </c>
       <c r="L294">
         <v>2010</v>
@@ -5429,10 +5429,10 @@
         <v>6</v>
       </c>
       <c r="J295">
-        <v>1.8106021845</v>
+        <v>1.3606021845</v>
       </c>
       <c r="K295">
-        <v>3.67908096072432</v>
+        <v>3.7915809607243101</v>
       </c>
       <c r="L295">
         <v>2010</v>
@@ -5443,10 +5443,10 @@
         <v>6</v>
       </c>
       <c r="J296">
-        <v>1.8106021845</v>
+        <v>1.3606021845</v>
       </c>
       <c r="K296">
-        <v>3.67908096072432</v>
+        <v>3.7915809607243101</v>
       </c>
       <c r="L296">
         <v>2010</v>
@@ -5457,10 +5457,10 @@
         <v>6</v>
       </c>
       <c r="J297">
-        <v>1.8106021845</v>
+        <v>1.3606021845</v>
       </c>
       <c r="K297">
-        <v>3.67908096072432</v>
+        <v>3.7915809607243101</v>
       </c>
       <c r="L297">
         <v>2010</v>
@@ -5471,10 +5471,10 @@
         <v>6</v>
       </c>
       <c r="J298">
-        <v>1.8106021845</v>
+        <v>1.3606021845</v>
       </c>
       <c r="K298">
-        <v>3.67908096072432</v>
+        <v>3.7915809607243101</v>
       </c>
       <c r="L298">
         <v>2010</v>
@@ -5485,10 +5485,10 @@
         <v>6</v>
       </c>
       <c r="J299">
-        <v>1.8102257799999999</v>
+        <v>1.67022578</v>
       </c>
       <c r="K299">
-        <v>4.06701752760274</v>
+        <v>4.1020175276027402</v>
       </c>
       <c r="L299">
         <v>2011</v>
@@ -5499,10 +5499,10 @@
         <v>6</v>
       </c>
       <c r="J300">
-        <v>1.8102257799999999</v>
+        <v>1.67022578</v>
       </c>
       <c r="K300">
-        <v>4.06701752760274</v>
+        <v>4.1020175276027402</v>
       </c>
       <c r="L300">
         <v>2011</v>
@@ -5513,10 +5513,10 @@
         <v>6</v>
       </c>
       <c r="J301">
-        <v>1.8102257799999999</v>
+        <v>1.67022578</v>
       </c>
       <c r="K301">
-        <v>4.06701752760274</v>
+        <v>4.1020175276027402</v>
       </c>
       <c r="L301">
         <v>2011</v>
@@ -5527,10 +5527,10 @@
         <v>6</v>
       </c>
       <c r="J302">
-        <v>1.8102257799999999</v>
+        <v>1.67022578</v>
       </c>
       <c r="K302">
-        <v>4.06701752760274</v>
+        <v>4.1020175276027402</v>
       </c>
       <c r="L302">
         <v>2011</v>
@@ -5541,10 +5541,10 @@
         <v>6</v>
       </c>
       <c r="J303">
-        <v>1.8102257799999999</v>
+        <v>1.67022578</v>
       </c>
       <c r="K303">
-        <v>4.06701752760274</v>
+        <v>4.1020175276027402</v>
       </c>
       <c r="L303">
         <v>2011</v>
@@ -5555,10 +5555,10 @@
         <v>6</v>
       </c>
       <c r="J304">
-        <v>1.8102257799999999</v>
+        <v>1.67022578</v>
       </c>
       <c r="K304">
-        <v>4.06701752760274</v>
+        <v>4.1020175276027402</v>
       </c>
       <c r="L304">
         <v>2011</v>
@@ -5569,10 +5569,10 @@
         <v>6</v>
       </c>
       <c r="J305">
-        <v>1.8102257799999999</v>
+        <v>1.67022578</v>
       </c>
       <c r="K305">
-        <v>4.06701752760274</v>
+        <v>4.1020175276027402</v>
       </c>
       <c r="L305">
         <v>2011</v>
@@ -5583,10 +5583,10 @@
         <v>6</v>
       </c>
       <c r="J306">
-        <v>1.8102257799999999</v>
+        <v>1.67022578</v>
       </c>
       <c r="K306">
-        <v>4.06701752760274</v>
+        <v>4.1020175276027402</v>
       </c>
       <c r="L306">
         <v>2011</v>
@@ -5597,10 +5597,10 @@
         <v>6</v>
       </c>
       <c r="J307">
-        <v>1.8102257799999999</v>
+        <v>1.67022578</v>
       </c>
       <c r="K307">
-        <v>4.06701752760274</v>
+        <v>4.1020175276027402</v>
       </c>
       <c r="L307">
         <v>2011</v>
@@ -5611,10 +5611,10 @@
         <v>6</v>
       </c>
       <c r="J308">
-        <v>1.8102257799999999</v>
+        <v>1.67022578</v>
       </c>
       <c r="K308">
-        <v>4.06701752760274</v>
+        <v>4.1020175276027402</v>
       </c>
       <c r="L308">
         <v>2011</v>
@@ -5625,10 +5625,10 @@
         <v>6</v>
       </c>
       <c r="J309">
-        <v>1.8102257799999999</v>
+        <v>1.67022578</v>
       </c>
       <c r="K309">
-        <v>4.06701752760274</v>
+        <v>4.1020175276027402</v>
       </c>
       <c r="L309">
         <v>2011</v>
@@ -5639,10 +5639,10 @@
         <v>6</v>
       </c>
       <c r="J310">
-        <v>1.8102257799999999</v>
+        <v>1.67022578</v>
       </c>
       <c r="K310">
-        <v>4.06701752760274</v>
+        <v>4.1020175276027402</v>
       </c>
       <c r="L310">
         <v>2011</v>
@@ -5653,10 +5653,10 @@
         <v>6</v>
       </c>
       <c r="J311">
-        <v>1.8102257799999999</v>
+        <v>1.67022578</v>
       </c>
       <c r="K311">
-        <v>4.06701752760274</v>
+        <v>4.1020175276027402</v>
       </c>
       <c r="L311">
         <v>2011</v>
@@ -5667,10 +5667,10 @@
         <v>6</v>
       </c>
       <c r="J312">
-        <v>1.8102257799999999</v>
+        <v>1.67022578</v>
       </c>
       <c r="K312">
-        <v>4.06701752760274</v>
+        <v>4.1020175276027402</v>
       </c>
       <c r="L312">
         <v>2011</v>
@@ -5681,10 +5681,10 @@
         <v>6</v>
       </c>
       <c r="J313">
-        <v>1.8102257799999999</v>
+        <v>1.67022578</v>
       </c>
       <c r="K313">
-        <v>4.06701752760274</v>
+        <v>4.1020175276027402</v>
       </c>
       <c r="L313">
         <v>2011</v>
@@ -5695,10 +5695,10 @@
         <v>6</v>
       </c>
       <c r="J314">
-        <v>1.8102257799999999</v>
+        <v>1.67022578</v>
       </c>
       <c r="K314">
-        <v>4.06701752760274</v>
+        <v>4.1020175276027402</v>
       </c>
       <c r="L314">
         <v>2011</v>
@@ -5709,10 +5709,10 @@
         <v>6</v>
       </c>
       <c r="J315">
-        <v>1.8102257799999999</v>
+        <v>1.67022578</v>
       </c>
       <c r="K315">
-        <v>4.06701752760274</v>
+        <v>4.1020175276027402</v>
       </c>
       <c r="L315">
         <v>2011</v>
@@ -5723,10 +5723,10 @@
         <v>6</v>
       </c>
       <c r="J316">
-        <v>1.8102257799999999</v>
+        <v>1.67022578</v>
       </c>
       <c r="K316">
-        <v>4.06701752760274</v>
+        <v>4.1020175276027402</v>
       </c>
       <c r="L316">
         <v>2011</v>
@@ -5737,10 +5737,10 @@
         <v>6</v>
       </c>
       <c r="J317">
-        <v>1.8102257799999999</v>
+        <v>1.67022578</v>
       </c>
       <c r="K317">
-        <v>4.06701752760274</v>
+        <v>4.1020175276027402</v>
       </c>
       <c r="L317">
         <v>2011</v>
@@ -5751,10 +5751,10 @@
         <v>6</v>
       </c>
       <c r="J318">
-        <v>1.8102257799999999</v>
+        <v>1.67022578</v>
       </c>
       <c r="K318">
-        <v>4.06701752760274</v>
+        <v>4.1020175276027402</v>
       </c>
       <c r="L318">
         <v>2011</v>
@@ -5765,10 +5765,10 @@
         <v>6</v>
       </c>
       <c r="J319">
-        <v>1.8102257799999999</v>
+        <v>1.67022578</v>
       </c>
       <c r="K319">
-        <v>4.06701752760274</v>
+        <v>4.1020175276027402</v>
       </c>
       <c r="L319">
         <v>2011</v>
@@ -5779,10 +5779,10 @@
         <v>6</v>
       </c>
       <c r="J320">
-        <v>1.8102257799999999</v>
+        <v>1.67022578</v>
       </c>
       <c r="K320">
-        <v>4.06701752760274</v>
+        <v>4.1020175276027402</v>
       </c>
       <c r="L320">
         <v>2011</v>
@@ -5793,10 +5793,10 @@
         <v>6</v>
       </c>
       <c r="J321">
-        <v>1.8102257799999999</v>
+        <v>1.67022578</v>
       </c>
       <c r="K321">
-        <v>4.06701752760274</v>
+        <v>4.1020175276027402</v>
       </c>
       <c r="L321">
         <v>2011</v>
@@ -5807,10 +5807,10 @@
         <v>6</v>
       </c>
       <c r="J322">
-        <v>1.8102257799999999</v>
+        <v>1.67022578</v>
       </c>
       <c r="K322">
-        <v>4.06701752760274</v>
+        <v>4.1020175276027402</v>
       </c>
       <c r="L322">
         <v>2011</v>
@@ -5821,10 +5821,10 @@
         <v>6</v>
       </c>
       <c r="J323">
-        <v>1.8102257799999999</v>
+        <v>1.67022578</v>
       </c>
       <c r="K323">
-        <v>4.06701752760274</v>
+        <v>4.1020175276027402</v>
       </c>
       <c r="L323">
         <v>2011</v>
@@ -5835,10 +5835,10 @@
         <v>6</v>
       </c>
       <c r="J324">
-        <v>1.8102257799999999</v>
+        <v>1.67022578</v>
       </c>
       <c r="K324">
-        <v>4.06701752760274</v>
+        <v>4.1020175276027402</v>
       </c>
       <c r="L324">
         <v>2011</v>
@@ -5849,10 +5849,10 @@
         <v>6</v>
       </c>
       <c r="J325">
-        <v>1.8102257799999999</v>
+        <v>1.67022578</v>
       </c>
       <c r="K325">
-        <v>4.06701752760274</v>
+        <v>4.1020175276027402</v>
       </c>
       <c r="L325">
         <v>2011</v>
@@ -5863,10 +5863,10 @@
         <v>6</v>
       </c>
       <c r="J326">
-        <v>1.9969475475</v>
+        <v>1.5169475475</v>
       </c>
       <c r="K326">
-        <v>4.1618137980565102</v>
+        <v>4.2818137980565103</v>
       </c>
       <c r="L326">
         <v>2012</v>
@@ -5877,10 +5877,10 @@
         <v>6</v>
       </c>
       <c r="J327">
-        <v>1.9969475475</v>
+        <v>1.5169475475</v>
       </c>
       <c r="K327">
-        <v>4.1618137980565102</v>
+        <v>4.2818137980565103</v>
       </c>
       <c r="L327">
         <v>2012</v>
@@ -5891,10 +5891,10 @@
         <v>6</v>
       </c>
       <c r="J328">
-        <v>1.9969475475</v>
+        <v>1.5169475475</v>
       </c>
       <c r="K328">
-        <v>4.1618137980565102</v>
+        <v>4.2818137980565103</v>
       </c>
       <c r="L328">
         <v>2012</v>
@@ -5905,10 +5905,10 @@
         <v>6</v>
       </c>
       <c r="J329">
-        <v>1.9969475475</v>
+        <v>1.5169475475</v>
       </c>
       <c r="K329">
-        <v>4.1618137980565102</v>
+        <v>4.2818137980565103</v>
       </c>
       <c r="L329">
         <v>2012</v>
@@ -5919,10 +5919,10 @@
         <v>6</v>
       </c>
       <c r="J330">
-        <v>1.9969475475</v>
+        <v>1.5169475475</v>
       </c>
       <c r="K330">
-        <v>4.1618137980565102</v>
+        <v>4.2818137980565103</v>
       </c>
       <c r="L330">
         <v>2012</v>
@@ -5933,10 +5933,10 @@
         <v>6</v>
       </c>
       <c r="J331">
-        <v>1.9969475475</v>
+        <v>1.5169475475</v>
       </c>
       <c r="K331">
-        <v>4.1618137980565102</v>
+        <v>4.2818137980565103</v>
       </c>
       <c r="L331">
         <v>2012</v>
@@ -5947,10 +5947,10 @@
         <v>6</v>
       </c>
       <c r="J332">
-        <v>1.9969475475</v>
+        <v>1.5169475475</v>
       </c>
       <c r="K332">
-        <v>4.1618137980565102</v>
+        <v>4.2818137980565103</v>
       </c>
       <c r="L332">
         <v>2012</v>
@@ -5961,10 +5961,10 @@
         <v>6</v>
       </c>
       <c r="J333">
-        <v>1.9969475475</v>
+        <v>1.5169475475</v>
       </c>
       <c r="K333">
-        <v>4.1618137980565102</v>
+        <v>4.2818137980565103</v>
       </c>
       <c r="L333">
         <v>2012</v>
@@ -5975,10 +5975,10 @@
         <v>6</v>
       </c>
       <c r="J334">
-        <v>1.9969475475</v>
+        <v>1.5169475475</v>
       </c>
       <c r="K334">
-        <v>4.1618137980565102</v>
+        <v>4.2818137980565103</v>
       </c>
       <c r="L334">
         <v>2012</v>
@@ -5989,10 +5989,10 @@
         <v>6</v>
       </c>
       <c r="J335">
-        <v>1.9969475475</v>
+        <v>1.5169475475</v>
       </c>
       <c r="K335">
-        <v>4.1618137980565102</v>
+        <v>4.2818137980565103</v>
       </c>
       <c r="L335">
         <v>2012</v>
@@ -6003,10 +6003,10 @@
         <v>6</v>
       </c>
       <c r="J336">
-        <v>1.9969475475</v>
+        <v>1.5169475475</v>
       </c>
       <c r="K336">
-        <v>4.1618137980565102</v>
+        <v>4.2818137980565103</v>
       </c>
       <c r="L336">
         <v>2012</v>
@@ -6017,10 +6017,10 @@
         <v>6</v>
       </c>
       <c r="J337">
-        <v>1.9969475475</v>
+        <v>1.5169475475</v>
       </c>
       <c r="K337">
-        <v>4.1618137980565102</v>
+        <v>4.2818137980565103</v>
       </c>
       <c r="L337">
         <v>2012</v>
@@ -6031,10 +6031,10 @@
         <v>6</v>
       </c>
       <c r="J338">
-        <v>1.9969475475</v>
+        <v>1.5169475475</v>
       </c>
       <c r="K338">
-        <v>4.1618137980565102</v>
+        <v>4.2818137980565103</v>
       </c>
       <c r="L338">
         <v>2012</v>
@@ -6045,10 +6045,10 @@
         <v>6</v>
       </c>
       <c r="J339">
-        <v>1.9969475475</v>
+        <v>1.5169475475</v>
       </c>
       <c r="K339">
-        <v>4.1618137980565102</v>
+        <v>4.2818137980565103</v>
       </c>
       <c r="L339">
         <v>2012</v>
@@ -6059,10 +6059,10 @@
         <v>6</v>
       </c>
       <c r="J340">
-        <v>1.9969475475</v>
+        <v>1.5169475475</v>
       </c>
       <c r="K340">
-        <v>4.1618137980565102</v>
+        <v>4.2818137980565103</v>
       </c>
       <c r="L340">
         <v>2012</v>
@@ -6073,10 +6073,10 @@
         <v>6</v>
       </c>
       <c r="J341">
-        <v>1.9969475475</v>
+        <v>1.5169475475</v>
       </c>
       <c r="K341">
-        <v>4.1618137980565102</v>
+        <v>4.2818137980565103</v>
       </c>
       <c r="L341">
         <v>2012</v>
@@ -6087,10 +6087,10 @@
         <v>6</v>
       </c>
       <c r="J342">
-        <v>1.9969475475</v>
+        <v>1.5169475475</v>
       </c>
       <c r="K342">
-        <v>4.1618137980565102</v>
+        <v>4.2818137980565103</v>
       </c>
       <c r="L342">
         <v>2012</v>
@@ -6101,10 +6101,10 @@
         <v>6</v>
       </c>
       <c r="J343">
-        <v>1.9969475475</v>
+        <v>1.5169475475</v>
       </c>
       <c r="K343">
-        <v>4.1618137980565102</v>
+        <v>4.2818137980565103</v>
       </c>
       <c r="L343">
         <v>2012</v>
@@ -6115,10 +6115,10 @@
         <v>6</v>
       </c>
       <c r="J344">
-        <v>1.9969475475</v>
+        <v>1.5169475475</v>
       </c>
       <c r="K344">
-        <v>4.1618137980565102</v>
+        <v>4.2818137980565103</v>
       </c>
       <c r="L344">
         <v>2012</v>
@@ -6129,10 +6129,10 @@
         <v>6</v>
       </c>
       <c r="J345">
-        <v>1.9969475475</v>
+        <v>1.5169475475</v>
       </c>
       <c r="K345">
-        <v>4.1618137980565102</v>
+        <v>4.2818137980565103</v>
       </c>
       <c r="L345">
         <v>2012</v>
@@ -6143,10 +6143,10 @@
         <v>6</v>
       </c>
       <c r="J346">
-        <v>1.9969475475</v>
+        <v>1.5169475475</v>
       </c>
       <c r="K346">
-        <v>4.1618137980565102</v>
+        <v>4.2818137980565103</v>
       </c>
       <c r="L346">
         <v>2012</v>
@@ -6157,10 +6157,10 @@
         <v>6</v>
       </c>
       <c r="J347">
-        <v>1.9969475475</v>
+        <v>1.5169475475</v>
       </c>
       <c r="K347">
-        <v>4.1618137980565102</v>
+        <v>4.2818137980565103</v>
       </c>
       <c r="L347">
         <v>2012</v>
@@ -6171,10 +6171,10 @@
         <v>6</v>
       </c>
       <c r="J348">
-        <v>1.9969475475</v>
+        <v>1.5169475475</v>
       </c>
       <c r="K348">
-        <v>4.1618137980565102</v>
+        <v>4.2818137980565103</v>
       </c>
       <c r="L348">
         <v>2012</v>
@@ -6185,10 +6185,10 @@
         <v>6</v>
       </c>
       <c r="J349">
-        <v>1.9969475475</v>
+        <v>1.5169475475</v>
       </c>
       <c r="K349">
-        <v>4.1618137980565102</v>
+        <v>4.2818137980565103</v>
       </c>
       <c r="L349">
         <v>2012</v>
@@ -6199,10 +6199,10 @@
         <v>6</v>
       </c>
       <c r="J350">
-        <v>1.9969475475</v>
+        <v>1.5169475475</v>
       </c>
       <c r="K350">
-        <v>4.1618137980565102</v>
+        <v>4.2818137980565103</v>
       </c>
       <c r="L350">
         <v>2012</v>
@@ -6213,10 +6213,10 @@
         <v>6</v>
       </c>
       <c r="J351">
-        <v>1.9969475475</v>
+        <v>1.5169475475</v>
       </c>
       <c r="K351">
-        <v>4.1618137980565102</v>
+        <v>4.2818137980565103</v>
       </c>
       <c r="L351">
         <v>2012</v>
@@ -6227,10 +6227,10 @@
         <v>6</v>
       </c>
       <c r="J352">
-        <v>1.9969475475</v>
+        <v>1.5169475475</v>
       </c>
       <c r="K352">
-        <v>4.1618137980565102</v>
+        <v>4.2818137980565103</v>
       </c>
       <c r="L352">
         <v>2012</v>
@@ -6241,10 +6241,10 @@
         <v>6</v>
       </c>
       <c r="J353">
-        <v>2.000594795</v>
+        <v>1.7705947950000001</v>
       </c>
       <c r="K353">
-        <v>4.3548129450856203</v>
+        <v>4.4123129450856204</v>
       </c>
       <c r="L353">
         <v>2013</v>
@@ -6255,10 +6255,10 @@
         <v>6</v>
       </c>
       <c r="J354">
-        <v>2.000594795</v>
+        <v>1.7705947950000001</v>
       </c>
       <c r="K354">
-        <v>4.3548129450856203</v>
+        <v>4.4123129450856204</v>
       </c>
       <c r="L354">
         <v>2013</v>
@@ -6269,10 +6269,10 @@
         <v>6</v>
       </c>
       <c r="J355">
-        <v>2.000594795</v>
+        <v>1.7705947950000001</v>
       </c>
       <c r="K355">
-        <v>4.3548129450856203</v>
+        <v>4.4123129450856204</v>
       </c>
       <c r="L355">
         <v>2013</v>
@@ -6283,10 +6283,10 @@
         <v>6</v>
       </c>
       <c r="J356">
-        <v>2.000594795</v>
+        <v>1.7705947950000001</v>
       </c>
       <c r="K356">
-        <v>4.3548129450856203</v>
+        <v>4.4123129450856204</v>
       </c>
       <c r="L356">
         <v>2013</v>
@@ -6297,10 +6297,10 @@
         <v>6</v>
       </c>
       <c r="J357">
-        <v>2.000594795</v>
+        <v>1.7705947950000001</v>
       </c>
       <c r="K357">
-        <v>4.3548129450856203</v>
+        <v>4.4123129450856204</v>
       </c>
       <c r="L357">
         <v>2013</v>
@@ -6311,10 +6311,10 @@
         <v>6</v>
       </c>
       <c r="J358">
-        <v>2.000594795</v>
+        <v>1.7705947950000001</v>
       </c>
       <c r="K358">
-        <v>4.3548129450856203</v>
+        <v>4.4123129450856204</v>
       </c>
       <c r="L358">
         <v>2013</v>
@@ -6325,10 +6325,10 @@
         <v>6</v>
       </c>
       <c r="J359">
-        <v>2.000594795</v>
+        <v>1.7705947950000001</v>
       </c>
       <c r="K359">
-        <v>4.3548129450856203</v>
+        <v>4.4123129450856204</v>
       </c>
       <c r="L359">
         <v>2013</v>
@@ -6339,10 +6339,10 @@
         <v>6</v>
       </c>
       <c r="J360">
-        <v>2.000594795</v>
+        <v>1.7705947950000001</v>
       </c>
       <c r="K360">
-        <v>4.3548129450856203</v>
+        <v>4.4123129450856204</v>
       </c>
       <c r="L360">
         <v>2013</v>
@@ -6353,10 +6353,10 @@
         <v>6</v>
       </c>
       <c r="J361">
-        <v>2.000594795</v>
+        <v>1.7705947950000001</v>
       </c>
       <c r="K361">
-        <v>4.3548129450856203</v>
+        <v>4.4123129450856204</v>
       </c>
       <c r="L361">
         <v>2013</v>
@@ -6367,10 +6367,10 @@
         <v>6</v>
       </c>
       <c r="J362">
-        <v>2.000594795</v>
+        <v>1.7705947950000001</v>
       </c>
       <c r="K362">
-        <v>4.3548129450856203</v>
+        <v>4.4123129450856204</v>
       </c>
       <c r="L362">
         <v>2013</v>
@@ -6381,10 +6381,10 @@
         <v>6</v>
       </c>
       <c r="J363">
-        <v>2.000594795</v>
+        <v>1.7705947950000001</v>
       </c>
       <c r="K363">
-        <v>4.3548129450856203</v>
+        <v>4.4123129450856204</v>
       </c>
       <c r="L363">
         <v>2013</v>
@@ -6395,10 +6395,10 @@
         <v>6</v>
       </c>
       <c r="J364">
-        <v>2.000594795</v>
+        <v>1.7705947950000001</v>
       </c>
       <c r="K364">
-        <v>4.3548129450856203</v>
+        <v>4.4123129450856204</v>
       </c>
       <c r="L364">
         <v>2013</v>
@@ -6409,10 +6409,10 @@
         <v>6</v>
       </c>
       <c r="J365">
-        <v>2.000594795</v>
+        <v>1.7705947950000001</v>
       </c>
       <c r="K365">
-        <v>4.3548129450856203</v>
+        <v>4.4123129450856204</v>
       </c>
       <c r="L365">
         <v>2013</v>
@@ -6423,10 +6423,10 @@
         <v>6</v>
       </c>
       <c r="J366">
-        <v>2.000594795</v>
+        <v>1.7705947950000001</v>
       </c>
       <c r="K366">
-        <v>4.3548129450856203</v>
+        <v>4.4123129450856204</v>
       </c>
       <c r="L366">
         <v>2013</v>
@@ -6437,10 +6437,10 @@
         <v>6</v>
       </c>
       <c r="J367">
-        <v>2.000594795</v>
+        <v>1.7705947950000001</v>
       </c>
       <c r="K367">
-        <v>4.3548129450856203</v>
+        <v>4.4123129450856204</v>
       </c>
       <c r="L367">
         <v>2013</v>
@@ -6451,10 +6451,10 @@
         <v>6</v>
       </c>
       <c r="J368">
-        <v>2.000594795</v>
+        <v>1.7705947950000001</v>
       </c>
       <c r="K368">
-        <v>4.3548129450856203</v>
+        <v>4.4123129450856204</v>
       </c>
       <c r="L368">
         <v>2013</v>
@@ -6465,10 +6465,10 @@
         <v>6</v>
       </c>
       <c r="J369">
-        <v>2.000594795</v>
+        <v>1.7705947950000001</v>
       </c>
       <c r="K369">
-        <v>4.3548129450856203</v>
+        <v>4.4123129450856204</v>
       </c>
       <c r="L369">
         <v>2013</v>
@@ -6479,10 +6479,10 @@
         <v>6</v>
       </c>
       <c r="J370">
-        <v>2.000594795</v>
+        <v>1.7705947950000001</v>
       </c>
       <c r="K370">
-        <v>4.3548129450856203</v>
+        <v>4.4123129450856204</v>
       </c>
       <c r="L370">
         <v>2013</v>
@@ -6493,10 +6493,10 @@
         <v>6</v>
       </c>
       <c r="J371">
-        <v>2.000594795</v>
+        <v>1.7705947950000001</v>
       </c>
       <c r="K371">
-        <v>4.3548129450856203</v>
+        <v>4.4123129450856204</v>
       </c>
       <c r="L371">
         <v>2013</v>
@@ -6507,10 +6507,10 @@
         <v>6</v>
       </c>
       <c r="J372">
-        <v>2.000594795</v>
+        <v>1.7705947950000001</v>
       </c>
       <c r="K372">
-        <v>4.3548129450856203</v>
+        <v>4.4123129450856204</v>
       </c>
       <c r="L372">
         <v>2013</v>
@@ -6521,10 +6521,10 @@
         <v>6</v>
       </c>
       <c r="J373">
-        <v>2.000594795</v>
+        <v>1.7705947950000001</v>
       </c>
       <c r="K373">
-        <v>4.3548129450856203</v>
+        <v>4.4123129450856204</v>
       </c>
       <c r="L373">
         <v>2013</v>
@@ -6535,10 +6535,10 @@
         <v>6</v>
       </c>
       <c r="J374">
-        <v>2.000594795</v>
+        <v>1.7705947950000001</v>
       </c>
       <c r="K374">
-        <v>4.3548129450856203</v>
+        <v>4.4123129450856204</v>
       </c>
       <c r="L374">
         <v>2013</v>
@@ -6549,10 +6549,10 @@
         <v>6</v>
       </c>
       <c r="J375">
-        <v>2.000594795</v>
+        <v>1.7705947950000001</v>
       </c>
       <c r="K375">
-        <v>4.3548129450856203</v>
+        <v>4.4123129450856204</v>
       </c>
       <c r="L375">
         <v>2013</v>
@@ -6563,10 +6563,10 @@
         <v>6</v>
       </c>
       <c r="J376">
-        <v>2.000594795</v>
+        <v>1.7705947950000001</v>
       </c>
       <c r="K376">
-        <v>4.3548129450856203</v>
+        <v>4.4123129450856204</v>
       </c>
       <c r="L376">
         <v>2013</v>
@@ -6577,10 +6577,10 @@
         <v>6</v>
       </c>
       <c r="J377">
-        <v>2.000594795</v>
+        <v>1.7705947950000001</v>
       </c>
       <c r="K377">
-        <v>4.3548129450856203</v>
+        <v>4.4123129450856204</v>
       </c>
       <c r="L377">
         <v>2013</v>
@@ -6591,10 +6591,10 @@
         <v>6</v>
       </c>
       <c r="J378">
-        <v>2.000594795</v>
+        <v>1.7705947950000001</v>
       </c>
       <c r="K378">
-        <v>4.3548129450856203</v>
+        <v>4.4123129450856204</v>
       </c>
       <c r="L378">
         <v>2013</v>
@@ -6605,10 +6605,10 @@
         <v>6</v>
       </c>
       <c r="J379">
-        <v>2.000594795</v>
+        <v>1.7705947950000001</v>
       </c>
       <c r="K379">
-        <v>4.3548129450856203</v>
+        <v>4.4123129450856204</v>
       </c>
       <c r="L379">
         <v>2013</v>
@@ -6619,10 +6619,10 @@
         <v>6</v>
       </c>
       <c r="J380">
-        <v>2.2537373590000001</v>
+        <v>1.713737359</v>
       </c>
       <c r="K380">
-        <v>4.6903464821678096</v>
+        <v>4.8253464821678103</v>
       </c>
       <c r="L380">
         <v>2015</v>
@@ -6633,10 +6633,10 @@
         <v>6</v>
       </c>
       <c r="J381">
-        <v>2.2537373590000001</v>
+        <v>1.713737359</v>
       </c>
       <c r="K381">
-        <v>4.6903464821678096</v>
+        <v>4.8253464821678103</v>
       </c>
       <c r="L381">
         <v>2015</v>
@@ -6647,10 +6647,10 @@
         <v>6</v>
       </c>
       <c r="J382">
-        <v>2.2537373590000001</v>
+        <v>1.713737359</v>
       </c>
       <c r="K382">
-        <v>4.6903464821678096</v>
+        <v>4.8253464821678103</v>
       </c>
       <c r="L382">
         <v>2015</v>
@@ -6661,10 +6661,10 @@
         <v>6</v>
       </c>
       <c r="J383">
-        <v>2.2537373590000001</v>
+        <v>1.713737359</v>
       </c>
       <c r="K383">
-        <v>4.6903464821678096</v>
+        <v>4.8253464821678103</v>
       </c>
       <c r="L383">
         <v>2015</v>
@@ -6675,10 +6675,10 @@
         <v>6</v>
       </c>
       <c r="J384">
-        <v>2.2537373590000001</v>
+        <v>1.713737359</v>
       </c>
       <c r="K384">
-        <v>4.6903464821678096</v>
+        <v>4.8253464821678103</v>
       </c>
       <c r="L384">
         <v>2015</v>
@@ -6689,10 +6689,10 @@
         <v>6</v>
       </c>
       <c r="J385">
-        <v>2.2537373590000001</v>
+        <v>1.713737359</v>
       </c>
       <c r="K385">
-        <v>4.6903464821678096</v>
+        <v>4.8253464821678103</v>
       </c>
       <c r="L385">
         <v>2015</v>
@@ -6703,10 +6703,10 @@
         <v>6</v>
       </c>
       <c r="J386">
-        <v>2.2537373590000001</v>
+        <v>1.713737359</v>
       </c>
       <c r="K386">
-        <v>4.6903464821678096</v>
+        <v>4.8253464821678103</v>
       </c>
       <c r="L386">
         <v>2015</v>
@@ -6717,10 +6717,10 @@
         <v>6</v>
       </c>
       <c r="J387">
-        <v>2.2537373590000001</v>
+        <v>1.713737359</v>
       </c>
       <c r="K387">
-        <v>4.6903464821678096</v>
+        <v>4.8253464821678103</v>
       </c>
       <c r="L387">
         <v>2015</v>
@@ -6731,10 +6731,10 @@
         <v>6</v>
       </c>
       <c r="J388">
-        <v>2.2537373590000001</v>
+        <v>1.713737359</v>
       </c>
       <c r="K388">
-        <v>4.6903464821678096</v>
+        <v>4.8253464821678103</v>
       </c>
       <c r="L388">
         <v>2015</v>
@@ -6745,10 +6745,10 @@
         <v>6</v>
       </c>
       <c r="J389">
-        <v>2.2537373590000001</v>
+        <v>1.713737359</v>
       </c>
       <c r="K389">
-        <v>4.6903464821678096</v>
+        <v>4.8253464821678103</v>
       </c>
       <c r="L389">
         <v>2015</v>
@@ -6759,10 +6759,10 @@
         <v>6</v>
       </c>
       <c r="J390">
-        <v>2.2537373590000001</v>
+        <v>1.713737359</v>
       </c>
       <c r="K390">
-        <v>4.6903464821678096</v>
+        <v>4.8253464821678103</v>
       </c>
       <c r="L390">
         <v>2015</v>
@@ -6773,10 +6773,10 @@
         <v>6</v>
       </c>
       <c r="J391">
-        <v>2.2537373590000001</v>
+        <v>1.713737359</v>
       </c>
       <c r="K391">
-        <v>4.6903464821678096</v>
+        <v>4.8253464821678103</v>
       </c>
       <c r="L391">
         <v>2015</v>
@@ -6787,10 +6787,10 @@
         <v>6</v>
       </c>
       <c r="J392">
-        <v>2.2537373590000001</v>
+        <v>1.713737359</v>
       </c>
       <c r="K392">
-        <v>4.6903464821678096</v>
+        <v>4.8253464821678103</v>
       </c>
       <c r="L392">
         <v>2015</v>
@@ -6801,10 +6801,10 @@
         <v>6</v>
       </c>
       <c r="J393">
-        <v>2.2537373590000001</v>
+        <v>1.713737359</v>
       </c>
       <c r="K393">
-        <v>4.6903464821678096</v>
+        <v>4.8253464821678103</v>
       </c>
       <c r="L393">
         <v>2015</v>
@@ -6815,10 +6815,10 @@
         <v>6</v>
       </c>
       <c r="J394">
-        <v>2.2537373590000001</v>
+        <v>1.713737359</v>
       </c>
       <c r="K394">
-        <v>4.6903464821678096</v>
+        <v>4.8253464821678103</v>
       </c>
       <c r="L394">
         <v>2015</v>
@@ -6829,10 +6829,10 @@
         <v>6</v>
       </c>
       <c r="J395">
-        <v>2.2537373590000001</v>
+        <v>1.713737359</v>
       </c>
       <c r="K395">
-        <v>4.6903464821678096</v>
+        <v>4.8253464821678103</v>
       </c>
       <c r="L395">
         <v>2015</v>
@@ -6843,10 +6843,10 @@
         <v>6</v>
       </c>
       <c r="J396">
-        <v>2.2537373590000001</v>
+        <v>1.713737359</v>
       </c>
       <c r="K396">
-        <v>4.6903464821678096</v>
+        <v>4.8253464821678103</v>
       </c>
       <c r="L396">
         <v>2015</v>
@@ -6857,10 +6857,10 @@
         <v>6</v>
       </c>
       <c r="J397">
-        <v>2.2537373590000001</v>
+        <v>1.713737359</v>
       </c>
       <c r="K397">
-        <v>4.6903464821678096</v>
+        <v>4.8253464821678103</v>
       </c>
       <c r="L397">
         <v>2015</v>
@@ -6871,10 +6871,10 @@
         <v>6</v>
       </c>
       <c r="J398">
-        <v>2.2537373590000001</v>
+        <v>1.713737359</v>
       </c>
       <c r="K398">
-        <v>4.6903464821678096</v>
+        <v>4.8253464821678103</v>
       </c>
       <c r="L398">
         <v>2015</v>
@@ -6885,10 +6885,10 @@
         <v>6</v>
       </c>
       <c r="J399">
-        <v>2.2537373590000001</v>
+        <v>1.713737359</v>
       </c>
       <c r="K399">
-        <v>4.6903464821678096</v>
+        <v>4.8253464821678103</v>
       </c>
       <c r="L399">
         <v>2015</v>
@@ -6899,10 +6899,10 @@
         <v>6</v>
       </c>
       <c r="J400">
-        <v>2.2537373590000001</v>
+        <v>1.713737359</v>
       </c>
       <c r="K400">
-        <v>4.6903464821678096</v>
+        <v>4.8253464821678103</v>
       </c>
       <c r="L400">
         <v>2015</v>
@@ -6913,10 +6913,10 @@
         <v>6</v>
       </c>
       <c r="J401">
-        <v>2.2537373590000001</v>
+        <v>1.713737359</v>
       </c>
       <c r="K401">
-        <v>4.6903464821678096</v>
+        <v>4.8253464821678103</v>
       </c>
       <c r="L401">
         <v>2015</v>
@@ -6927,10 +6927,10 @@
         <v>6</v>
       </c>
       <c r="J402">
-        <v>2.2537373590000001</v>
+        <v>1.713737359</v>
       </c>
       <c r="K402">
-        <v>4.6903464821678096</v>
+        <v>4.8253464821678103</v>
       </c>
       <c r="L402">
         <v>2015</v>
@@ -6941,10 +6941,10 @@
         <v>6</v>
       </c>
       <c r="J403">
-        <v>2.2537373590000001</v>
+        <v>1.713737359</v>
       </c>
       <c r="K403">
-        <v>4.6903464821678096</v>
+        <v>4.8253464821678103</v>
       </c>
       <c r="L403">
         <v>2015</v>
@@ -6955,10 +6955,10 @@
         <v>6</v>
       </c>
       <c r="J404">
-        <v>2.2537373590000001</v>
+        <v>1.713737359</v>
       </c>
       <c r="K404">
-        <v>4.6903464821678096</v>
+        <v>4.8253464821678103</v>
       </c>
       <c r="L404">
         <v>2015</v>
@@ -6969,10 +6969,10 @@
         <v>6</v>
       </c>
       <c r="J405">
-        <v>2.2537373590000001</v>
+        <v>1.713737359</v>
       </c>
       <c r="K405">
-        <v>4.6903464821678096</v>
+        <v>4.8253464821678103</v>
       </c>
       <c r="L405">
         <v>2015</v>
@@ -6983,10 +6983,10 @@
         <v>6</v>
       </c>
       <c r="J406">
-        <v>2.2537373590000001</v>
+        <v>1.713737359</v>
       </c>
       <c r="K406">
-        <v>4.6903464821678096</v>
+        <v>4.8253464821678103</v>
       </c>
       <c r="L406">
         <v>2015</v>
@@ -6999,7 +6999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60BC5682-F07F-4CEB-BAA4-BB83D89F1CE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FAD0112-089B-419A-9573-48B75023B970}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7025,10 +7025,10 @@
         <v>7</v>
       </c>
       <c r="J2">
-        <v>0.87727797500000004</v>
+        <v>0.707277975</v>
       </c>
       <c r="K2">
-        <v>1.7214179035102699</v>
+        <v>1.7639179035102699</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -7039,10 +7039,10 @@
         <v>7</v>
       </c>
       <c r="J3">
-        <v>1.0485956965000001</v>
+        <v>0.7285956965</v>
       </c>
       <c r="K3">
-        <v>1.73715956902568</v>
+        <v>1.8171595690256801</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -7053,10 +7053,10 @@
         <v>7</v>
       </c>
       <c r="J4">
-        <v>1.1023235490000001</v>
+        <v>0.71232354899999994</v>
       </c>
       <c r="K4">
-        <v>2.0042699346678101</v>
+        <v>2.1017699346678098</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -7067,10 +7067,10 @@
         <v>7</v>
       </c>
       <c r="J5">
-        <v>1.1590461949999999</v>
+        <v>0.76904619500000004</v>
       </c>
       <c r="K5">
-        <v>1.8205687252225999</v>
+        <v>1.9180687252226001</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -7081,10 +7081,10 @@
         <v>7</v>
       </c>
       <c r="J6">
-        <v>1.135794908</v>
+        <v>0.75579490800000004</v>
       </c>
       <c r="K6">
-        <v>2.1350745606712298</v>
+        <v>2.23007456067123</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -7095,10 +7095,10 @@
         <v>7</v>
       </c>
       <c r="J7">
-        <v>1.2787260119999999</v>
+        <v>0.82872601199999996</v>
       </c>
       <c r="K7">
-        <v>2.37631205864384</v>
+        <v>2.4888120586438398</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -7109,10 +7109,10 @@
         <v>7</v>
       </c>
       <c r="J8">
-        <v>1.29970352</v>
+        <v>0.86970351999999995</v>
       </c>
       <c r="K8">
-        <v>2.7518223391780801</v>
+        <v>2.85932233917808</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -7123,10 +7123,10 @@
         <v>7</v>
       </c>
       <c r="J9">
-        <v>1.3658257110000001</v>
+        <v>0.97582571100000004</v>
       </c>
       <c r="K9">
-        <v>3.34478864074315</v>
+        <v>3.4422886407431501</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -7137,10 +7137,10 @@
         <v>7</v>
       </c>
       <c r="J10">
-        <v>1.552993056</v>
+        <v>1.0729930560000001</v>
       </c>
       <c r="K10">
-        <v>3.5604943387397299</v>
+        <v>3.68049433873973</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -7151,10 +7151,10 @@
         <v>7</v>
       </c>
       <c r="J11">
-        <v>1.62447002</v>
+        <v>1.3044700199999999</v>
       </c>
       <c r="K11">
-        <v>3.9069824949999998</v>
+        <v>3.9869824949999999</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -7165,10 +7165,10 @@
         <v>7</v>
       </c>
       <c r="J12">
-        <v>1.732183008</v>
+        <v>1.6121830079999999</v>
       </c>
       <c r="K12">
-        <v>4.4544638370411</v>
+        <v>4.4844638370411003</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -7179,10 +7179,10 @@
         <v>7</v>
       </c>
       <c r="J13">
-        <v>1.8903803699999999</v>
+        <v>1.6203803699999999</v>
       </c>
       <c r="K13">
-        <v>4.3959528527054799</v>
+        <v>4.4634528527054798</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -7193,10 +7193,10 @@
         <v>7</v>
       </c>
       <c r="J14">
-        <v>1.9059309799999999</v>
+        <v>1.8559309799999999</v>
       </c>
       <c r="K14">
-        <v>5.09979396732877</v>
+        <v>5.1122939673287702</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -7207,10 +7207,10 @@
         <v>7</v>
       </c>
       <c r="J15">
-        <v>2.0526793525000002</v>
+        <v>1.8826793525000001</v>
       </c>
       <c r="K15">
-        <v>5.14346166872431</v>
+        <v>5.1859616687243104</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -7221,10 +7221,10 @@
         <v>7</v>
       </c>
       <c r="J16">
-        <v>2.1907941910000002</v>
+        <v>1.970794191</v>
       </c>
       <c r="K16">
-        <v>5.3736809043047904</v>
+        <v>5.4286809043047901</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -7237,7 +7237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35504702-FD84-496A-AE6C-41FD4E28B85B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BFE1B1-4669-4DC0-804D-D5BF864ABA37}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7263,10 +7263,10 @@
         <v>8</v>
       </c>
       <c r="J2">
-        <v>0.82807202000000002</v>
+        <v>0.73807202000000005</v>
       </c>
       <c r="K2">
-        <v>2.0121206251369901</v>
+        <v>2.03462062513699</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -7277,10 +7277,10 @@
         <v>8</v>
       </c>
       <c r="J3">
-        <v>0.98780952399999999</v>
+        <v>0.79780952400000005</v>
       </c>
       <c r="K3">
-        <v>2.15177241352055</v>
+        <v>2.1992724135205499</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -7291,10 +7291,10 @@
         <v>8</v>
       </c>
       <c r="J4">
-        <v>1.0736236785</v>
+        <v>0.86362367849999999</v>
       </c>
       <c r="K4">
-        <v>2.3922209296900698</v>
+        <v>2.44472092969007</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -7305,10 +7305,10 @@
         <v>8</v>
       </c>
       <c r="J5">
-        <v>1.0904735354999999</v>
+        <v>0.85047353550000004</v>
       </c>
       <c r="K5">
-        <v>2.2845183284537698</v>
+        <v>2.3445183284537698</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -7319,10 +7319,10 @@
         <v>8</v>
       </c>
       <c r="J6">
-        <v>1.0646198535</v>
+        <v>1.1246198535</v>
       </c>
       <c r="K6">
-        <v>2.9387565434743199</v>
+        <v>2.9237565434743198</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -7333,10 +7333,10 @@
         <v>8</v>
       </c>
       <c r="J7">
-        <v>1.1833775550000001</v>
+        <v>1.603377555</v>
       </c>
       <c r="K7">
-        <v>3.8087486249486302</v>
+        <v>3.7037486249486302</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -7347,10 +7347,10 @@
         <v>8</v>
       </c>
       <c r="J8">
-        <v>1.1818527750000001</v>
+        <v>1.4818527749999999</v>
       </c>
       <c r="K8">
-        <v>3.9008874911815101</v>
+        <v>3.8258874911815099</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -7361,10 +7361,10 @@
         <v>8</v>
       </c>
       <c r="J9">
-        <v>1.3308783465</v>
+        <v>1.3908783465000001</v>
       </c>
       <c r="K9">
-        <v>3.4145084955667802</v>
+        <v>3.39950849556678</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -7375,10 +7375,10 @@
         <v>8</v>
       </c>
       <c r="J10">
-        <v>1.4886268380000001</v>
+        <v>1.648626838</v>
       </c>
       <c r="K10">
-        <v>4.2513446603630101</v>
+        <v>4.21134466036301</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -7389,10 +7389,10 @@
         <v>8</v>
       </c>
       <c r="J11">
-        <v>1.6044909174999999</v>
+        <v>1.7744909175000001</v>
       </c>
       <c r="K11">
-        <v>4.4195731610359603</v>
+        <v>4.3770731610359599</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -7403,10 +7403,10 @@
         <v>8</v>
       </c>
       <c r="J12">
-        <v>1.7479718125000001</v>
+        <v>1.8579718125</v>
       </c>
       <c r="K12">
-        <v>4.4692645811215703</v>
+        <v>4.4417645811215696</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -7417,10 +7417,10 @@
         <v>8</v>
       </c>
       <c r="J13">
-        <v>1.8861964375</v>
+        <v>1.9261964375</v>
       </c>
       <c r="K13">
-        <v>4.6237700687071897</v>
+        <v>4.6137700687071899</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -7431,10 +7431,10 @@
         <v>8</v>
       </c>
       <c r="J14">
-        <v>1.9395959819999999</v>
+        <v>1.989595982</v>
       </c>
       <c r="K14">
-        <v>4.8566708675137003</v>
+        <v>4.8441708675137001</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -7445,10 +7445,10 @@
         <v>8</v>
       </c>
       <c r="J15">
-        <v>2.0837715635</v>
+        <v>1.9737715634999999</v>
       </c>
       <c r="K15">
-        <v>4.82086943789212</v>
+        <v>4.8483694378921198</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -7459,10 +7459,10 @@
         <v>8</v>
       </c>
       <c r="J16">
-        <v>2.2421394779999999</v>
+        <v>2.092139478</v>
       </c>
       <c r="K16">
-        <v>5.2945404729657497</v>
+        <v>5.3320404729657502</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -7475,7 +7475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DBF62B-1626-41B1-B7F3-C4D8B0443DDC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3EECE8-5468-4EE9-AC93-2027C67FBE01}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7501,10 +7501,10 @@
         <v>9</v>
       </c>
       <c r="J2">
-        <v>0.63920776000000001</v>
+        <v>1.4092077599999999</v>
       </c>
       <c r="K2">
-        <v>4.1395268271232899</v>
+        <v>3.94702682712329</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -7515,10 +7515,10 @@
         <v>9</v>
       </c>
       <c r="J3">
-        <v>0.76863964399999996</v>
+        <v>1.6186396439999999</v>
       </c>
       <c r="K3">
-        <v>4.7461154314657499</v>
+        <v>4.5336154314657504</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -7529,10 +7529,10 @@
         <v>9</v>
       </c>
       <c r="J4">
-        <v>0.86086003799999999</v>
+        <v>1.830860038</v>
       </c>
       <c r="K4">
-        <v>5.0569932096780796</v>
+        <v>4.8144932096780799</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -7543,10 +7543,10 @@
         <v>9</v>
       </c>
       <c r="J5">
-        <v>0.85290911999999997</v>
+        <v>1.76290912</v>
       </c>
       <c r="K5">
-        <v>5.0597165556164398</v>
+        <v>4.8322165556164398</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -7557,10 +7557,10 @@
         <v>9</v>
       </c>
       <c r="J6">
-        <v>0.87612151999999999</v>
+        <v>1.9061215199999999</v>
       </c>
       <c r="K6">
-        <v>5.4976093460274003</v>
+        <v>5.2401093460274</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -7571,10 +7571,10 @@
         <v>9</v>
       </c>
       <c r="J7">
-        <v>1.0306535059999999</v>
+        <v>1.830653506</v>
       </c>
       <c r="K7">
-        <v>5.5782078563767099</v>
+        <v>5.3782078563767097</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -7585,10 +7585,10 @@
         <v>9</v>
       </c>
       <c r="J8">
-        <v>1.020719261</v>
+        <v>1.9407192609999999</v>
       </c>
       <c r="K8">
-        <v>6.41846812995548</v>
+        <v>6.1884681299554796</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -7599,10 +7599,10 @@
         <v>9</v>
       </c>
       <c r="J9">
-        <v>1.1244251255</v>
+        <v>1.9444251255</v>
       </c>
       <c r="K9">
-        <v>6.8628265953373297</v>
+        <v>6.6578265953373297</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -7613,10 +7613,10 @@
         <v>9</v>
       </c>
       <c r="J10">
-        <v>1.2546323429999999</v>
+        <v>2.1746323429999999</v>
       </c>
       <c r="K10">
-        <v>7.6088569827431503</v>
+        <v>7.3788569827431498</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -7627,10 +7627,10 @@
         <v>9</v>
       </c>
       <c r="J11">
-        <v>1.2967373105</v>
+        <v>2.5067373105000001</v>
       </c>
       <c r="K11">
-        <v>8.3062197819640406</v>
+        <v>8.0037197819640404</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -7641,10 +7641,10 @@
         <v>9</v>
       </c>
       <c r="J12">
-        <v>1.412530799</v>
+        <v>2.612530799</v>
       </c>
       <c r="K12">
-        <v>8.25374812216781</v>
+        <v>7.9537481221678101</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -7655,10 +7655,10 @@
         <v>9</v>
       </c>
       <c r="J13">
-        <v>1.530491815</v>
+        <v>2.6904918150000001</v>
       </c>
       <c r="K13">
-        <v>8.7086880051541105</v>
+        <v>8.4186880051541095</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -7669,10 +7669,10 @@
         <v>9</v>
       </c>
       <c r="J14">
-        <v>1.6110204435</v>
+        <v>2.6510204435000002</v>
       </c>
       <c r="K14">
-        <v>8.7747914644674694</v>
+        <v>8.5147914644674696</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -7683,10 +7683,10 @@
         <v>9</v>
       </c>
       <c r="J15">
-        <v>1.7199423</v>
+        <v>2.7999423000000001</v>
       </c>
       <c r="K15">
-        <v>9.4039651099315105</v>
+        <v>9.1339651099315091</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -7697,10 +7697,10 @@
         <v>9</v>
       </c>
       <c r="J16">
-        <v>1.790591482</v>
+        <v>3.1305914819999998</v>
       </c>
       <c r="K16">
-        <v>10.6716836363493</v>
+        <v>10.336683636349299</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -7713,7 +7713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968F11E8-06AB-4EA6-97FE-BBD8D215F25B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55494ADB-FA61-463F-88BD-7D9DF0E21185}">
   <dimension ref="I1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -7739,10 +7739,10 @@
         <v>10</v>
       </c>
       <c r="J2">
-        <v>0.98458179999999995</v>
+        <v>1.4545817999999999</v>
       </c>
       <c r="K2">
-        <v>5.1218449609589003</v>
+        <v>5.0043449609589103</v>
       </c>
       <c r="L2">
         <v>1996</v>
@@ -7753,10 +7753,10 @@
         <v>10</v>
       </c>
       <c r="J3">
-        <v>0.91022247199999995</v>
+        <v>1.7002224720000001</v>
       </c>
       <c r="K3">
-        <v>6.0468909573424696</v>
+        <v>5.8493909573424698</v>
       </c>
       <c r="L3">
         <v>1999</v>
@@ -7767,10 +7767,10 @@
         <v>10</v>
       </c>
       <c r="J4">
-        <v>1.006527495</v>
+        <v>1.696527495</v>
       </c>
       <c r="K4">
-        <v>6.0091462084417797</v>
+        <v>5.8366462084417803</v>
       </c>
       <c r="L4">
         <v>2002</v>
@@ -7781,10 +7781,10 @@
         <v>10</v>
       </c>
       <c r="J5">
-        <v>1.2401535290000001</v>
+        <v>1.640153529</v>
       </c>
       <c r="K5">
-        <v>5.8814479191198599</v>
+        <v>5.7814479191198602</v>
       </c>
       <c r="L5">
         <v>2005</v>
@@ -7795,10 +7795,10 @@
         <v>10</v>
       </c>
       <c r="J6">
-        <v>1.172610822</v>
+        <v>2.2526108219999998</v>
       </c>
       <c r="K6">
-        <v>8.4389514040890408</v>
+        <v>8.1689514040890394</v>
       </c>
       <c r="L6">
         <v>2008</v>
@@ -7809,10 +7809,10 @@
         <v>10</v>
       </c>
       <c r="J7">
-        <v>1.36135377</v>
+        <v>2.1213537699999998</v>
       </c>
       <c r="K7">
-        <v>7.99052594106164</v>
+        <v>7.8005259410616397</v>
       </c>
       <c r="L7">
         <v>2010</v>
@@ -7823,10 +7823,10 @@
         <v>10</v>
       </c>
       <c r="J8">
-        <v>1.4678849469999999</v>
+        <v>2.237884947</v>
       </c>
       <c r="K8">
-        <v>8.4215205440719192</v>
+        <v>8.2290205440719202</v>
       </c>
       <c r="L8">
         <v>2011</v>
@@ -7837,10 +7837,10 @@
         <v>10</v>
       </c>
       <c r="J9">
-        <v>1.5484481875</v>
+        <v>2.2284481875000002</v>
       </c>
       <c r="K9">
-        <v>8.3643235695633606</v>
+        <v>8.1943235695633607</v>
       </c>
       <c r="L9">
         <v>2012</v>
@@ -7851,10 +7851,10 @@
         <v>10</v>
       </c>
       <c r="J10">
-        <v>1.663361106</v>
+        <v>2.3233611060000001</v>
       </c>
       <c r="K10">
-        <v>8.7083309563767095</v>
+        <v>8.5433309563767104</v>
       </c>
       <c r="L10">
         <v>2013</v>
@@ -7865,10 +7865,10 @@
         <v>10</v>
       </c>
       <c r="J11">
-        <v>1.791651608</v>
+        <v>2.4216516079999999</v>
       </c>
       <c r="K11">
-        <v>9.0622679199178098</v>
+        <v>8.9047679199178091</v>
       </c>
       <c r="L11">
         <v>2015</v>

--- a/data/NP20versusRestIncomeTrendsSAS.xlsx
+++ b/data/NP20versusRestIncomeTrendsSAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\income_trends\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83B3C38E-3FD9-41E2-9404-5576BD271C49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A0D2B29-4369-40E8-A394-FDDA915A9E48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="1" activeTab="6" xr2:uid="{8EAF8184-70E6-4026-9365-0B8EF7ADE961}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="1" activeTab="6" xr2:uid="{63DBEA7D-1FED-4002-A56C-17CEB24B1088}"/>
   </bookViews>
   <sheets>
     <sheet name="Bangladesh" sheetId="2" r:id="rId1"/>
@@ -143,7 +143,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99A424D9-6D01-44B6-9668-42CB0C3A2FD6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{355F89D4-1E02-40C3-B188-7DD2B41B9DFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -201,7 +201,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90F3F0AF-24FA-4F4B-9F2C-0CADA5757514}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BACB4662-1DD5-4CB3-9888-A86643DCB747}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -259,7 +259,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CAF7472-A5BE-4D88-8A65-323EADD8C192}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB5D214A-9066-4C52-98B0-A0FA18D689E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -317,7 +317,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC350F6E-E945-4143-8B48-65855CC68B79}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7FACE06-9A7B-4F03-BFE0-E31F794D087C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -375,7 +375,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4E2D823-7BAE-4C9E-999C-49F14CBEAEBF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7885839B-7984-47D1-A966-4085BBF4E990}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -433,7 +433,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B28AD43-3256-402E-9474-27BDA8902D4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB7E4150-90C4-47F3-95A7-1402431E1861}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -491,7 +491,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1351C6F9-DCD5-4DF4-B642-F5DA7949B164}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95DE7791-B5AB-4B68-B2EF-581B4D860E49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CA4B95-4F67-435F-A7F5-C1EFF3218B1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6002A08B-9F9B-4986-8B0F-5B66E9BC5ACD}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1063,7 +1063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CCF4940-B130-4F67-B601-88616B5E24EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A222207-FE1C-4787-B498-B82E8FE0A824}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1301,7 +1301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42BCEE25-CE5D-48D8-83AD-D698E4016365}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6258B0F3-59A2-4855-8DAD-14AAF5BB46F1}">
   <dimension ref="I1:L406"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6999,7 +6999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FAD0112-089B-419A-9573-48B75023B970}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33BF425-71E8-4264-8B0B-BDF121AA2BF5}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7237,7 +7237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BFE1B1-4669-4DC0-804D-D5BF864ABA37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44061082-08A9-4B8B-9563-99D5E5B43EEC}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7475,7 +7475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3EECE8-5468-4EE9-AC93-2027C67FBE01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCEEF88-B241-4B3C-A118-98B375C27A6B}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7713,7 +7713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55494ADB-FA61-463F-88BD-7D9DF0E21185}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8905561F-B974-4BD0-B06F-8D10BCAB2B08}">
   <dimension ref="I1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
